--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\covid19_analysis\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:40009_{DC5FC63E-D001-4253-A6A4-1C059D008374}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{24A90094-D1D9-4CA5-8998-AEA1BA74BA9A}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="13_ncr:40009_{DC5FC63E-D001-4253-A6A4-1C059D008374}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{18A4FFA5-FDE5-46EC-9E50-46511DE88285}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>date</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>available_icu_beds</t>
+  </si>
+  <si>
+    <t>c19_ventilated_cases</t>
   </si>
 </sst>
 </file>
@@ -881,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,9 +896,10 @@
     <col min="2" max="2" width="20.5546875" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,8 +912,11 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43934</v>
       </c>
@@ -922,8 +929,11 @@
       <c r="D2">
         <v>135</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43935</v>
       </c>
@@ -936,8 +946,11 @@
       <c r="D3">
         <v>133</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43936</v>
       </c>
@@ -950,8 +963,11 @@
       <c r="D4">
         <v>127</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43937</v>
       </c>
@@ -964,8 +980,11 @@
       <c r="D5">
         <v>115</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43938</v>
       </c>
@@ -978,8 +997,11 @@
       <c r="D6">
         <v>126</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43939</v>
       </c>
@@ -992,8 +1014,11 @@
       <c r="D7">
         <v>132</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43940</v>
       </c>
@@ -1006,8 +1031,11 @@
       <c r="D8">
         <v>142</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43941</v>
       </c>
@@ -1020,8 +1048,11 @@
       <c r="D9">
         <v>140</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43942</v>
       </c>
@@ -1034,8 +1065,11 @@
       <c r="D10">
         <v>133</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43943</v>
       </c>
@@ -1048,8 +1082,11 @@
       <c r="D11">
         <v>140</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43944</v>
       </c>
@@ -1062,8 +1099,11 @@
       <c r="D12">
         <v>142</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43945</v>
       </c>
@@ -1076,8 +1116,11 @@
       <c r="D13">
         <v>143</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43946</v>
       </c>
@@ -1090,8 +1133,11 @@
       <c r="D14">
         <v>139</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43947</v>
       </c>
@@ -1104,8 +1150,11 @@
       <c r="D15">
         <v>153</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43948</v>
       </c>
@@ -1118,8 +1167,11 @@
       <c r="D16">
         <v>164</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43949</v>
       </c>
@@ -1132,8 +1184,11 @@
       <c r="D17">
         <v>151</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43950</v>
       </c>
@@ -1146,8 +1201,11 @@
       <c r="D18">
         <v>141</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43951</v>
       </c>
@@ -1160,8 +1218,11 @@
       <c r="D19">
         <v>146</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43952</v>
       </c>
@@ -1174,8 +1235,11 @@
       <c r="D20">
         <v>134</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43953</v>
       </c>
@@ -1188,8 +1252,11 @@
       <c r="D21">
         <v>131</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43954</v>
       </c>
@@ -1202,13 +1269,28 @@
       <c r="D22">
         <v>143</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43955</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>91</v>
+      </c>
+      <c r="C23" s="2">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>132</v>
+      </c>
+      <c r="E23">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -1220,21 +1302,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CA7C97186F1BB408A6F387D684A3BB6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58c7cd5724ce370d4d73babe3356d4a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04591d74-042e-4909-9ae6-bc115388d8f2" xmlns:ns4="514868b4-9db6-4edd-a163-6c6915c701a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="257ff94f7eb6a2de2f3f859f9e8efae4" ns3:_="" ns4:_="">
     <xsd:import namespace="04591d74-042e-4909-9ae6-bc115388d8f2"/>
@@ -1457,32 +1524,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E480AC8-B063-456D-AB59-C66FDDCF5808}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1499,4 +1556,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\covid19_analysis\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="13_ncr:40009_{DC5FC63E-D001-4253-A6A4-1C059D008374}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{18A4FFA5-FDE5-46EC-9E50-46511DE88285}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:40009_{DC5FC63E-D001-4253-A6A4-1C059D008374}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{A34042F3-E768-4D0E-8596-3BEA1AA36D67}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		</t>
   </si>
   <si>
     <t>c19_icu_cases</t>
@@ -887,7 +884,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -904,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1291,8 +1288,20 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>1</v>
+      <c r="A24" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B24">
+        <v>90</v>
+      </c>
+      <c r="C24" s="2">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>145</v>
+      </c>
+      <c r="E24">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1302,6 +1311,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CA7C97186F1BB408A6F387D684A3BB6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58c7cd5724ce370d4d73babe3356d4a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04591d74-042e-4909-9ae6-bc115388d8f2" xmlns:ns4="514868b4-9db6-4edd-a163-6c6915c701a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="257ff94f7eb6a2de2f3f859f9e8efae4" ns3:_="" ns4:_="">
     <xsd:import namespace="04591d74-042e-4909-9ae6-bc115388d8f2"/>
@@ -1524,15 +1542,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1540,6 +1549,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E480AC8-B063-456D-AB59-C66FDDCF5808}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1558,26 +1575,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\covid19_analysis\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:40009_{DC5FC63E-D001-4253-A6A4-1C059D008374}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{A34042F3-E768-4D0E-8596-3BEA1AA36D67}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86ADC6C0-CB13-4168-9238-35FC08CAA574}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1304,6 +1304,23 @@
         <v>53</v>
       </c>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B25">
+        <v>82</v>
+      </c>
+      <c r="C25" s="2">
+        <v>37</v>
+      </c>
+      <c r="D25">
+        <v>144</v>
+      </c>
+      <c r="E25">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1311,12 +1328,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1543,15 +1557,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1576,18 +1602,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\covid19_analysis\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86ADC6C0-CB13-4168-9238-35FC08CAA574}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="6_{780C48C6-1782-47C1-867E-20E106C052E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{C323C277-2F4F-4D57-8BE0-3AF42A30B2A9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1321,6 +1321,23 @@
         <v>52</v>
       </c>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B26">
+        <v>76</v>
+      </c>
+      <c r="C26" s="2">
+        <v>29</v>
+      </c>
+      <c r="D26">
+        <v>154</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1328,9 +1345,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1557,27 +1577,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1602,9 +1610,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\covid19_analysis\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="6_{780C48C6-1782-47C1-867E-20E106C052E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{C323C277-2F4F-4D57-8BE0-3AF42A30B2A9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9052FFEB-8D30-453D-A16E-E3EADA7092FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,6 +1338,40 @@
         <v>50</v>
       </c>
     </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B27">
+        <v>72</v>
+      </c>
+      <c r="C27" s="2">
+        <v>27</v>
+      </c>
+      <c r="D27">
+        <v>146</v>
+      </c>
+      <c r="E27">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B28">
+        <v>72</v>
+      </c>
+      <c r="C28" s="2">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>161</v>
+      </c>
+      <c r="E28">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1345,12 +1379,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1577,15 +1608,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1610,18 +1653,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\covid19_analysis\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9052FFEB-8D30-453D-A16E-E3EADA7092FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="6_{75D2665C-C7CB-42C6-81CB-292544B512C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{7F6E1E75-3DA1-4EDC-9226-55ECEE4D10E3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1370,6 +1370,40 @@
       </c>
       <c r="E28">
         <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B29">
+        <v>72</v>
+      </c>
+      <c r="C29" s="2">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>156</v>
+      </c>
+      <c r="E29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B30">
+        <v>69</v>
+      </c>
+      <c r="C30" s="2">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>155</v>
+      </c>
+      <c r="E30">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1619,15 +1653,15 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\covid19_analysis\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="6_{75D2665C-C7CB-42C6-81CB-292544B512C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{7F6E1E75-3DA1-4EDC-9226-55ECEE4D10E3}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="6_{75D2665C-C7CB-42C6-81CB-292544B512C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{88C32796-C635-42B3-A091-C909CEFB6676}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1406,6 +1406,23 @@
         <v>47</v>
       </c>
     </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B31">
+        <v>67</v>
+      </c>
+      <c r="C31" s="2">
+        <v>24</v>
+      </c>
+      <c r="D31">
+        <v>148</v>
+      </c>
+      <c r="E31">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1413,9 +1430,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1642,27 +1662,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1687,9 +1695,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\covid19_analysis\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="6_{75D2665C-C7CB-42C6-81CB-292544B512C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{88C32796-C635-42B3-A091-C909CEFB6676}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="6_{75D2665C-C7CB-42C6-81CB-292544B512C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{1E67C89F-E5AC-499B-BD29-E6F24E5058CD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1421,6 +1421,40 @@
       </c>
       <c r="E31">
         <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B32">
+        <v>62</v>
+      </c>
+      <c r="C32" s="2">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>149</v>
+      </c>
+      <c r="E32">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B33">
+        <v>59</v>
+      </c>
+      <c r="C33" s="2">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>131</v>
+      </c>
+      <c r="E33">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1697,15 +1731,15 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\covid19_analysis\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="6_{75D2665C-C7CB-42C6-81CB-292544B512C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{1E67C89F-E5AC-499B-BD29-E6F24E5058CD}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="6_{75D2665C-C7CB-42C6-81CB-292544B512C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{7FDF6141-2533-4877-8305-1DB1BE9B7D2A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1457,6 +1457,125 @@
         <v>44</v>
       </c>
     </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B34">
+        <v>56</v>
+      </c>
+      <c r="C34" s="2">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>155</v>
+      </c>
+      <c r="E34">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B35">
+        <v>54</v>
+      </c>
+      <c r="C35" s="2">
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <v>151</v>
+      </c>
+      <c r="E35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B36">
+        <v>51</v>
+      </c>
+      <c r="C36" s="2">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>138</v>
+      </c>
+      <c r="E36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B37">
+        <v>55</v>
+      </c>
+      <c r="C37" s="2">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>141</v>
+      </c>
+      <c r="E37">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B38">
+        <v>54</v>
+      </c>
+      <c r="C38" s="2">
+        <v>16</v>
+      </c>
+      <c r="D38">
+        <v>132</v>
+      </c>
+      <c r="E38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B39">
+        <v>49</v>
+      </c>
+      <c r="C39" s="2">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>126</v>
+      </c>
+      <c r="E39">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B40">
+        <v>52</v>
+      </c>
+      <c r="C40" s="2">
+        <v>12</v>
+      </c>
+      <c r="D40">
+        <v>109</v>
+      </c>
+      <c r="E40">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1464,12 +1583,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1696,15 +1812,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1729,18 +1857,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\covid19_analysis\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="6_{75D2665C-C7CB-42C6-81CB-292544B512C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{7FDF6141-2533-4877-8305-1DB1BE9B7D2A}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="6_{75D2665C-C7CB-42C6-81CB-292544B512C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{C55FD80F-9671-422B-8C75-ACFE8E5FC612}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1576,6 +1576,57 @@
         <v>36</v>
       </c>
     </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B41">
+        <v>49</v>
+      </c>
+      <c r="C41" s="2">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <v>107</v>
+      </c>
+      <c r="E41">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B42">
+        <v>51</v>
+      </c>
+      <c r="C42" s="2">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <v>114</v>
+      </c>
+      <c r="E42">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B43">
+        <v>49</v>
+      </c>
+      <c r="C43" s="2">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>126</v>
+      </c>
+      <c r="E43">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1583,9 +1634,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1812,27 +1866,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1857,9 +1899,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\covid19_analysis\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="6_{75D2665C-C7CB-42C6-81CB-292544B512C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{C55FD80F-9671-422B-8C75-ACFE8E5FC612}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{7FBEBA62-DE0C-4DAA-AFBE-3D7B085B5750}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1627,6 +1627,159 @@
         <v>33</v>
       </c>
     </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B44">
+        <v>48</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>116</v>
+      </c>
+      <c r="E44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B45">
+        <v>48</v>
+      </c>
+      <c r="C45" s="2">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>108</v>
+      </c>
+      <c r="E45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B46">
+        <v>48</v>
+      </c>
+      <c r="C46" s="2">
+        <v>17</v>
+      </c>
+      <c r="D46">
+        <v>116</v>
+      </c>
+      <c r="E46">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47" s="2">
+        <v>9</v>
+      </c>
+      <c r="D47">
+        <v>113</v>
+      </c>
+      <c r="E47">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B48">
+        <v>42</v>
+      </c>
+      <c r="C48" s="2">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>113</v>
+      </c>
+      <c r="E48">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B49">
+        <v>36</v>
+      </c>
+      <c r="C49" s="2">
+        <v>9</v>
+      </c>
+      <c r="D49">
+        <v>118</v>
+      </c>
+      <c r="E49">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B50">
+        <v>36</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>124</v>
+      </c>
+      <c r="E50">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B51">
+        <v>37</v>
+      </c>
+      <c r="C51" s="2">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>120</v>
+      </c>
+      <c r="E51">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B52">
+        <v>36</v>
+      </c>
+      <c r="C52" s="2">
+        <v>8</v>
+      </c>
+      <c r="D52">
+        <v>117</v>
+      </c>
+      <c r="E52">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1634,12 +1787,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1866,15 +2016,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1899,18 +2061,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\covid19_analysis\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{7FBEBA62-DE0C-4DAA-AFBE-3D7B085B5750}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{0A5118EE-49A1-43DE-8AE6-E217562D5496}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>date</t>
   </si>
   <si>
     <t>c19_icu_cases</t>
-  </si>
-  <si>
-    <t>new_deaths</t>
   </si>
   <si>
     <t>available_icu_beds</t>
@@ -518,13 +515,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -881,903 +875,843 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
-    <col min="5" max="5" width="23.21875" customWidth="1"/>
+    <col min="2" max="3" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43934</v>
       </c>
       <c r="B2">
         <v>144</v>
       </c>
-      <c r="C2" s="2">
-        <v>31</v>
+      <c r="C2">
+        <v>135</v>
       </c>
       <c r="D2">
-        <v>135</v>
-      </c>
-      <c r="E2">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43935</v>
       </c>
       <c r="B3">
         <v>147</v>
       </c>
-      <c r="C3" s="2">
-        <v>41</v>
+      <c r="C3">
+        <v>133</v>
       </c>
       <c r="D3">
-        <v>133</v>
-      </c>
-      <c r="E3">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43936</v>
       </c>
       <c r="B4">
         <v>142</v>
       </c>
-      <c r="C4" s="2">
-        <v>38</v>
+      <c r="C4">
+        <v>127</v>
       </c>
       <c r="D4">
-        <v>127</v>
-      </c>
-      <c r="E4">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43937</v>
       </c>
       <c r="B5">
         <v>138</v>
       </c>
-      <c r="C5" s="2">
-        <v>42</v>
+      <c r="C5">
+        <v>115</v>
       </c>
       <c r="D5">
-        <v>115</v>
-      </c>
-      <c r="E5">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43938</v>
       </c>
       <c r="B6">
         <v>132</v>
       </c>
-      <c r="C6" s="2">
-        <v>44</v>
+      <c r="C6">
+        <v>126</v>
       </c>
       <c r="D6">
-        <v>126</v>
-      </c>
-      <c r="E6">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43939</v>
       </c>
       <c r="B7">
         <v>140</v>
       </c>
-      <c r="C7" s="2">
-        <v>41</v>
+      <c r="C7">
+        <v>132</v>
       </c>
       <c r="D7">
-        <v>132</v>
-      </c>
-      <c r="E7">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43940</v>
       </c>
       <c r="B8">
         <v>138</v>
       </c>
-      <c r="C8" s="2">
-        <v>39</v>
+      <c r="C8">
+        <v>142</v>
       </c>
       <c r="D8">
-        <v>142</v>
-      </c>
-      <c r="E8">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43941</v>
       </c>
       <c r="B9">
         <v>138</v>
       </c>
-      <c r="C9" s="2">
-        <v>77</v>
+      <c r="C9">
+        <v>140</v>
       </c>
       <c r="D9">
-        <v>140</v>
-      </c>
-      <c r="E9">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43942</v>
       </c>
       <c r="B10">
         <v>132</v>
       </c>
-      <c r="C10" s="2">
-        <v>44</v>
+      <c r="C10">
+        <v>133</v>
       </c>
       <c r="D10">
-        <v>133</v>
-      </c>
-      <c r="E10">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43943</v>
       </c>
       <c r="B11">
         <v>130</v>
       </c>
-      <c r="C11" s="2">
-        <v>38</v>
+      <c r="C11">
+        <v>140</v>
       </c>
       <c r="D11">
-        <v>140</v>
-      </c>
-      <c r="E11">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43944</v>
       </c>
       <c r="B12">
         <v>123</v>
       </c>
-      <c r="C12" s="2">
-        <v>25</v>
+      <c r="C12">
+        <v>142</v>
       </c>
       <c r="D12">
-        <v>142</v>
-      </c>
-      <c r="E12">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43945</v>
       </c>
       <c r="B13">
         <v>118</v>
       </c>
-      <c r="C13" s="2">
-        <v>35</v>
+      <c r="C13">
+        <v>143</v>
       </c>
       <c r="D13">
-        <v>143</v>
-      </c>
-      <c r="E13">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43946</v>
       </c>
       <c r="B14">
         <v>123</v>
       </c>
-      <c r="C14" s="2">
-        <v>49</v>
+      <c r="C14">
+        <v>139</v>
       </c>
       <c r="D14">
-        <v>139</v>
-      </c>
-      <c r="E14">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43947</v>
       </c>
       <c r="B15">
         <v>120</v>
       </c>
-      <c r="C15" s="2">
-        <v>24</v>
+      <c r="C15">
+        <v>153</v>
       </c>
       <c r="D15">
-        <v>153</v>
-      </c>
-      <c r="E15">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43948</v>
       </c>
       <c r="B16">
         <v>117</v>
       </c>
-      <c r="C16" s="2">
-        <v>15</v>
+      <c r="C16">
+        <v>164</v>
       </c>
       <c r="D16">
-        <v>164</v>
-      </c>
-      <c r="E16">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43949</v>
       </c>
       <c r="B17">
         <v>113</v>
       </c>
-      <c r="C17" s="2">
-        <v>57</v>
+      <c r="C17">
+        <v>151</v>
       </c>
       <c r="D17">
-        <v>151</v>
-      </c>
-      <c r="E17">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43950</v>
       </c>
       <c r="B18">
         <v>103</v>
       </c>
-      <c r="C18" s="2">
-        <v>31</v>
+      <c r="C18">
+        <v>141</v>
       </c>
       <c r="D18">
-        <v>141</v>
-      </c>
-      <c r="E18">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43951</v>
       </c>
       <c r="B19">
         <v>105</v>
       </c>
-      <c r="C19" s="2">
-        <v>42</v>
+      <c r="C19">
+        <v>146</v>
       </c>
       <c r="D19">
-        <v>146</v>
-      </c>
-      <c r="E19">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43952</v>
       </c>
       <c r="B20">
         <v>99</v>
       </c>
-      <c r="C20" s="2">
-        <v>33</v>
+      <c r="C20">
+        <v>134</v>
       </c>
       <c r="D20">
-        <v>134</v>
-      </c>
-      <c r="E20">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43953</v>
       </c>
       <c r="B21">
         <v>98</v>
       </c>
-      <c r="C21" s="2">
-        <v>21</v>
+      <c r="C21">
+        <v>131</v>
       </c>
       <c r="D21">
-        <v>131</v>
-      </c>
-      <c r="E21">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43954</v>
       </c>
       <c r="B22">
         <v>93</v>
       </c>
-      <c r="C22" s="2">
-        <v>17</v>
+      <c r="C22">
+        <v>143</v>
       </c>
       <c r="D22">
-        <v>143</v>
-      </c>
-      <c r="E22">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43955</v>
       </c>
       <c r="B23">
         <v>91</v>
       </c>
-      <c r="C23" s="2">
-        <v>16</v>
+      <c r="C23">
+        <v>132</v>
       </c>
       <c r="D23">
-        <v>132</v>
-      </c>
-      <c r="E23">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43956</v>
       </c>
       <c r="B24">
         <v>90</v>
       </c>
-      <c r="C24" s="2">
-        <v>23</v>
+      <c r="C24">
+        <v>145</v>
       </c>
       <c r="D24">
-        <v>145</v>
-      </c>
-      <c r="E24">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43957</v>
       </c>
       <c r="B25">
         <v>82</v>
       </c>
-      <c r="C25" s="2">
-        <v>37</v>
+      <c r="C25">
+        <v>144</v>
       </c>
       <c r="D25">
-        <v>144</v>
-      </c>
-      <c r="E25">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43958</v>
       </c>
       <c r="B26">
         <v>76</v>
       </c>
-      <c r="C26" s="2">
-        <v>29</v>
+      <c r="C26">
+        <v>154</v>
       </c>
       <c r="D26">
-        <v>154</v>
-      </c>
-      <c r="E26">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43959</v>
       </c>
       <c r="B27">
         <v>72</v>
       </c>
-      <c r="C27" s="2">
-        <v>27</v>
+      <c r="C27">
+        <v>146</v>
       </c>
       <c r="D27">
-        <v>146</v>
-      </c>
-      <c r="E27">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43960</v>
       </c>
       <c r="B28">
         <v>72</v>
       </c>
-      <c r="C28" s="2">
-        <v>18</v>
+      <c r="C28">
+        <v>161</v>
       </c>
       <c r="D28">
-        <v>161</v>
-      </c>
-      <c r="E28">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43961</v>
       </c>
       <c r="B29">
         <v>72</v>
       </c>
-      <c r="C29" s="2">
-        <v>12</v>
+      <c r="C29">
+        <v>156</v>
       </c>
       <c r="D29">
-        <v>156</v>
-      </c>
-      <c r="E29">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43962</v>
       </c>
       <c r="B30">
         <v>69</v>
       </c>
-      <c r="C30" s="2">
-        <v>15</v>
+      <c r="C30">
+        <v>155</v>
       </c>
       <c r="D30">
-        <v>155</v>
-      </c>
-      <c r="E30">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43963</v>
       </c>
       <c r="B31">
         <v>67</v>
       </c>
-      <c r="C31" s="2">
-        <v>24</v>
+      <c r="C31">
+        <v>148</v>
       </c>
       <c r="D31">
-        <v>148</v>
-      </c>
-      <c r="E31">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43964</v>
       </c>
       <c r="B32">
         <v>62</v>
       </c>
-      <c r="C32" s="2">
-        <v>10</v>
+      <c r="C32">
+        <v>149</v>
       </c>
       <c r="D32">
-        <v>149</v>
-      </c>
-      <c r="E32">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43965</v>
       </c>
       <c r="B33">
         <v>59</v>
       </c>
-      <c r="C33" s="2">
-        <v>10</v>
+      <c r="C33">
+        <v>131</v>
       </c>
       <c r="D33">
-        <v>131</v>
-      </c>
-      <c r="E33">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43966</v>
       </c>
       <c r="B34">
         <v>56</v>
       </c>
-      <c r="C34" s="2">
-        <v>16</v>
+      <c r="C34">
+        <v>155</v>
       </c>
       <c r="D34">
-        <v>155</v>
-      </c>
-      <c r="E34">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43967</v>
       </c>
       <c r="B35">
         <v>54</v>
       </c>
-      <c r="C35" s="2">
-        <v>15</v>
+      <c r="C35">
+        <v>151</v>
       </c>
       <c r="D35">
-        <v>151</v>
-      </c>
-      <c r="E35">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43968</v>
       </c>
       <c r="B36">
         <v>51</v>
       </c>
-      <c r="C36" s="2">
-        <v>10</v>
+      <c r="C36">
+        <v>138</v>
       </c>
       <c r="D36">
-        <v>138</v>
-      </c>
-      <c r="E36">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43969</v>
       </c>
       <c r="B37">
         <v>55</v>
       </c>
-      <c r="C37" s="2">
-        <v>4</v>
+      <c r="C37">
+        <v>141</v>
       </c>
       <c r="D37">
-        <v>141</v>
-      </c>
-      <c r="E37">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43970</v>
       </c>
       <c r="B38">
         <v>54</v>
       </c>
-      <c r="C38" s="2">
-        <v>16</v>
+      <c r="C38">
+        <v>132</v>
       </c>
       <c r="D38">
-        <v>132</v>
-      </c>
-      <c r="E38">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43971</v>
       </c>
       <c r="B39">
         <v>49</v>
       </c>
-      <c r="C39" s="2">
-        <v>11</v>
+      <c r="C39">
+        <v>126</v>
       </c>
       <c r="D39">
-        <v>126</v>
-      </c>
-      <c r="E39">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43972</v>
       </c>
       <c r="B40">
         <v>52</v>
       </c>
-      <c r="C40" s="2">
-        <v>12</v>
+      <c r="C40">
+        <v>109</v>
       </c>
       <c r="D40">
-        <v>109</v>
-      </c>
-      <c r="E40">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43973</v>
       </c>
       <c r="B41">
         <v>49</v>
       </c>
-      <c r="C41" s="2">
-        <v>11</v>
+      <c r="C41">
+        <v>107</v>
       </c>
       <c r="D41">
-        <v>107</v>
-      </c>
-      <c r="E41">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43974</v>
       </c>
       <c r="B42">
         <v>51</v>
       </c>
-      <c r="C42" s="2">
-        <v>13</v>
+      <c r="C42">
+        <v>114</v>
       </c>
       <c r="D42">
-        <v>114</v>
-      </c>
-      <c r="E42">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43975</v>
       </c>
       <c r="B43">
         <v>49</v>
       </c>
-      <c r="C43" s="2">
-        <v>4</v>
+      <c r="C43">
+        <v>126</v>
       </c>
       <c r="D43">
-        <v>126</v>
-      </c>
-      <c r="E43">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43976</v>
       </c>
       <c r="B44">
         <v>48</v>
       </c>
-      <c r="C44" s="2">
-        <v>0</v>
+      <c r="C44">
+        <v>116</v>
       </c>
       <c r="D44">
-        <v>116</v>
-      </c>
-      <c r="E44">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43977</v>
       </c>
       <c r="B45">
         <v>48</v>
       </c>
-      <c r="C45" s="2">
-        <v>9</v>
+      <c r="C45">
+        <v>108</v>
       </c>
       <c r="D45">
-        <v>108</v>
-      </c>
-      <c r="E45">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43978</v>
       </c>
       <c r="B46">
         <v>48</v>
       </c>
-      <c r="C46" s="2">
-        <v>17</v>
+      <c r="C46">
+        <v>116</v>
       </c>
       <c r="D46">
-        <v>116</v>
-      </c>
-      <c r="E46">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43979</v>
       </c>
       <c r="B47">
         <v>45</v>
       </c>
-      <c r="C47" s="2">
-        <v>9</v>
+      <c r="C47">
+        <v>113</v>
       </c>
       <c r="D47">
-        <v>113</v>
-      </c>
-      <c r="E47">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43980</v>
       </c>
       <c r="B48">
         <v>42</v>
       </c>
-      <c r="C48" s="2">
-        <v>6</v>
+      <c r="C48">
+        <v>113</v>
       </c>
       <c r="D48">
-        <v>113</v>
-      </c>
-      <c r="E48">
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43981</v>
       </c>
       <c r="B49">
         <v>36</v>
       </c>
-      <c r="C49" s="2">
-        <v>9</v>
+      <c r="C49">
+        <v>118</v>
       </c>
       <c r="D49">
-        <v>118</v>
-      </c>
-      <c r="E49">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43982</v>
       </c>
       <c r="B50">
         <v>36</v>
       </c>
-      <c r="C50" s="2">
-        <v>2</v>
+      <c r="C50">
+        <v>124</v>
       </c>
       <c r="D50">
-        <v>124</v>
-      </c>
-      <c r="E50">
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43983</v>
       </c>
       <c r="B51">
         <v>37</v>
       </c>
-      <c r="C51" s="2">
-        <v>8</v>
+      <c r="C51">
+        <v>120</v>
       </c>
       <c r="D51">
-        <v>120</v>
-      </c>
-      <c r="E51">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43984</v>
       </c>
       <c r="B52">
         <v>36</v>
       </c>
-      <c r="C52" s="2">
-        <v>8</v>
+      <c r="C52">
+        <v>117</v>
       </c>
       <c r="D52">
-        <v>117</v>
-      </c>
-      <c r="E52">
         <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B53">
+        <v>37</v>
+      </c>
+      <c r="C53">
+        <v>103</v>
+      </c>
+      <c r="D53">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B54">
+        <v>36</v>
+      </c>
+      <c r="C54">
+        <v>96</v>
+      </c>
+      <c r="D54">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B55">
+        <v>37</v>
+      </c>
+      <c r="C55">
+        <v>103</v>
+      </c>
+      <c r="D55">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B56">
+        <v>36</v>
+      </c>
+      <c r="C56">
+        <v>114</v>
+      </c>
+      <c r="D56">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B57">
+        <v>34</v>
+      </c>
+      <c r="C57">
+        <v>112</v>
+      </c>
+      <c r="D57">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B58">
+        <v>34</v>
+      </c>
+      <c r="C58">
+        <v>119</v>
+      </c>
+      <c r="D58">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B59">
+        <v>35</v>
+      </c>
+      <c r="C59">
+        <v>114</v>
+      </c>
+      <c r="D59">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1787,9 +1721,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2016,27 +1953,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2061,9 +1986,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\covid19_analysis\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{0A5118EE-49A1-43DE-8AE6-E217562D5496}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{CE5EB4F8-FFDF-41FF-9F13-F82404A0F6B6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1714,6 +1714,118 @@
         <v>19</v>
       </c>
     </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B60">
+        <v>29</v>
+      </c>
+      <c r="C60">
+        <v>115</v>
+      </c>
+      <c r="D60">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B61">
+        <v>27</v>
+      </c>
+      <c r="C61">
+        <v>91</v>
+      </c>
+      <c r="D61">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B62">
+        <v>27</v>
+      </c>
+      <c r="C62">
+        <v>88</v>
+      </c>
+      <c r="D62">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B63">
+        <v>27</v>
+      </c>
+      <c r="C63">
+        <v>88</v>
+      </c>
+      <c r="D63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B64">
+        <v>27</v>
+      </c>
+      <c r="C64">
+        <v>116</v>
+      </c>
+      <c r="D64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B65">
+        <v>24</v>
+      </c>
+      <c r="C65">
+        <v>116</v>
+      </c>
+      <c r="D65">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B66">
+        <v>20</v>
+      </c>
+      <c r="C66">
+        <v>103</v>
+      </c>
+      <c r="D66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B67">
+        <v>21</v>
+      </c>
+      <c r="C67">
+        <v>92</v>
+      </c>
+      <c r="D67">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1721,12 +1833,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1953,15 +2062,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1986,18 +2107,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\covid19_analysis\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{CE5EB4F8-FFDF-41FF-9F13-F82404A0F6B6}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{10967FDF-D2DA-4830-96A5-E3A68848722D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1823,6 +1823,90 @@
         <v>92</v>
       </c>
       <c r="D67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B68">
+        <v>21</v>
+      </c>
+      <c r="C68">
+        <v>94</v>
+      </c>
+      <c r="D68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B69">
+        <v>16</v>
+      </c>
+      <c r="C69">
+        <v>98</v>
+      </c>
+      <c r="D69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B70">
+        <v>17</v>
+      </c>
+      <c r="C70">
+        <v>93</v>
+      </c>
+      <c r="D70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B71">
+        <v>16</v>
+      </c>
+      <c r="C71">
+        <v>106</v>
+      </c>
+      <c r="D71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B72">
+        <v>16</v>
+      </c>
+      <c r="C72">
+        <v>102</v>
+      </c>
+      <c r="D72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B73">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>95</v>
+      </c>
+      <c r="D73">
         <v>8</v>
       </c>
     </row>
@@ -2073,14 +2157,14 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>

--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\covid19_analysis\ireland_covid19_analysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{10967FDF-D2DA-4830-96A5-E3A68848722D}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{F867210D-BC64-4780-A407-BA9602D29563}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1910,6 +1910,48 @@
         <v>8</v>
       </c>
     </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B74">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>82</v>
+      </c>
+      <c r="D74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B75">
+        <v>12</v>
+      </c>
+      <c r="C75">
+        <v>73</v>
+      </c>
+      <c r="D75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B76">
+        <v>12</v>
+      </c>
+      <c r="C76">
+        <v>74</v>
+      </c>
+      <c r="D76">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1917,9 +1959,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2146,27 +2191,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2191,9 +2224,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{F867210D-BC64-4780-A407-BA9602D29563}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{0D4D6600-FF4E-404A-A21E-EFD84168E1D7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1952,6 +1952,34 @@
         <v>8</v>
       </c>
     </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B77">
+        <v>11</v>
+      </c>
+      <c r="C77">
+        <v>88</v>
+      </c>
+      <c r="D77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B78">
+        <v>11</v>
+      </c>
+      <c r="C78">
+        <v>87</v>
+      </c>
+      <c r="D78">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1959,15 +1987,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CA7C97186F1BB408A6F387D684A3BB6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58c7cd5724ce370d4d73babe3356d4a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04591d74-042e-4909-9ae6-bc115388d8f2" xmlns:ns4="514868b4-9db6-4edd-a163-6c6915c701a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="257ff94f7eb6a2de2f3f859f9e8efae4" ns3:_="" ns4:_="">
     <xsd:import namespace="04591d74-042e-4909-9ae6-bc115388d8f2"/>
@@ -2190,6 +2209,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2197,14 +2225,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E480AC8-B063-456D-AB59-C66FDDCF5808}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2223,19 +2243,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
     <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{0D4D6600-FF4E-404A-A21E-EFD84168E1D7}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{9FC9B35F-C618-46B8-AA00-A15FFCA4D513}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1980,6 +1980,34 @@
         <v>7</v>
       </c>
     </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>44011</v>
+      </c>
+      <c r="B79">
+        <v>12</v>
+      </c>
+      <c r="C79">
+        <v>80</v>
+      </c>
+      <c r="D79">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80">
+        <v>13</v>
+      </c>
+      <c r="C80">
+        <v>80</v>
+      </c>
+      <c r="D80">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1987,6 +2015,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CA7C97186F1BB408A6F387D684A3BB6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58c7cd5724ce370d4d73babe3356d4a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04591d74-042e-4909-9ae6-bc115388d8f2" xmlns:ns4="514868b4-9db6-4edd-a163-6c6915c701a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="257ff94f7eb6a2de2f3f859f9e8efae4" ns3:_="" ns4:_="">
     <xsd:import namespace="04591d74-042e-4909-9ae6-bc115388d8f2"/>
@@ -2209,22 +2252,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E480AC8-B063-456D-AB59-C66FDDCF5808}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2241,29 +2294,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{9FC9B35F-C618-46B8-AA00-A15FFCA4D513}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{71E29BAE-E4AE-4C8D-9539-107B3562DBF2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2008,6 +2008,76 @@
         <v>8</v>
       </c>
     </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B81">
+        <v>12</v>
+      </c>
+      <c r="C81">
+        <v>50</v>
+      </c>
+      <c r="D81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>46</v>
+      </c>
+      <c r="D82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>56</v>
+      </c>
+      <c r="D83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B84">
+        <v>11</v>
+      </c>
+      <c r="C84">
+        <v>61</v>
+      </c>
+      <c r="D84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>61</v>
+      </c>
+      <c r="D85">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2015,21 +2085,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CA7C97186F1BB408A6F387D684A3BB6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58c7cd5724ce370d4d73babe3356d4a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04591d74-042e-4909-9ae6-bc115388d8f2" xmlns:ns4="514868b4-9db6-4edd-a163-6c6915c701a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="257ff94f7eb6a2de2f3f859f9e8efae4" ns3:_="" ns4:_="">
     <xsd:import namespace="04591d74-042e-4909-9ae6-bc115388d8f2"/>
@@ -2252,32 +2307,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E480AC8-B063-456D-AB59-C66FDDCF5808}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2294,4 +2339,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{71E29BAE-E4AE-4C8D-9539-107B3562DBF2}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{63AAA45A-D9CC-44BB-9DA3-718445FC0EA0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2078,6 +2078,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>58</v>
+      </c>
+      <c r="D86">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2085,6 +2099,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CA7C97186F1BB408A6F387D684A3BB6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58c7cd5724ce370d4d73babe3356d4a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04591d74-042e-4909-9ae6-bc115388d8f2" xmlns:ns4="514868b4-9db6-4edd-a163-6c6915c701a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="257ff94f7eb6a2de2f3f859f9e8efae4" ns3:_="" ns4:_="">
     <xsd:import namespace="04591d74-042e-4909-9ae6-bc115388d8f2"/>
@@ -2307,22 +2336,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E480AC8-B063-456D-AB59-C66FDDCF5808}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2339,29 +2378,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{63AAA45A-D9CC-44BB-9DA3-718445FC0EA0}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{927F535A-1943-4DB1-8C58-BBCBD97A5D4B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2092,6 +2092,34 @@
         <v>7</v>
       </c>
     </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B87">
+        <v>9</v>
+      </c>
+      <c r="C87">
+        <v>51</v>
+      </c>
+      <c r="D87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B88">
+        <v>9</v>
+      </c>
+      <c r="C88">
+        <v>38</v>
+      </c>
+      <c r="D88">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2099,21 +2127,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CA7C97186F1BB408A6F387D684A3BB6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58c7cd5724ce370d4d73babe3356d4a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04591d74-042e-4909-9ae6-bc115388d8f2" xmlns:ns4="514868b4-9db6-4edd-a163-6c6915c701a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="257ff94f7eb6a2de2f3f859f9e8efae4" ns3:_="" ns4:_="">
     <xsd:import namespace="04591d74-042e-4909-9ae6-bc115388d8f2"/>
@@ -2336,32 +2349,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E480AC8-B063-456D-AB59-C66FDDCF5808}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2378,4 +2381,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{927F535A-1943-4DB1-8C58-BBCBD97A5D4B}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{470CE84F-C709-4291-B12F-DD00B34A1B4C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2120,6 +2120,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>44021</v>
+      </c>
+      <c r="B89">
+        <v>9</v>
+      </c>
+      <c r="C89">
+        <v>39</v>
+      </c>
+      <c r="D89">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2127,6 +2141,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CA7C97186F1BB408A6F387D684A3BB6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58c7cd5724ce370d4d73babe3356d4a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04591d74-042e-4909-9ae6-bc115388d8f2" xmlns:ns4="514868b4-9db6-4edd-a163-6c6915c701a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="257ff94f7eb6a2de2f3f859f9e8efae4" ns3:_="" ns4:_="">
     <xsd:import namespace="04591d74-042e-4909-9ae6-bc115388d8f2"/>
@@ -2349,22 +2378,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E480AC8-B063-456D-AB59-C66FDDCF5808}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2381,29 +2420,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{470CE84F-C709-4291-B12F-DD00B34A1B4C}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{965CAB45-C4A2-4AD2-BF3C-51340EF36353}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2134,6 +2134,48 @@
         <v>7</v>
       </c>
     </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>44022</v>
+      </c>
+      <c r="B90">
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <v>45</v>
+      </c>
+      <c r="D90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>44023</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>53</v>
+      </c>
+      <c r="D91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>44024</v>
+      </c>
+      <c r="B92">
+        <v>11</v>
+      </c>
+      <c r="C92">
+        <v>42</v>
+      </c>
+      <c r="D92">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2141,21 +2183,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CA7C97186F1BB408A6F387D684A3BB6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58c7cd5724ce370d4d73babe3356d4a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04591d74-042e-4909-9ae6-bc115388d8f2" xmlns:ns4="514868b4-9db6-4edd-a163-6c6915c701a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="257ff94f7eb6a2de2f3f859f9e8efae4" ns3:_="" ns4:_="">
     <xsd:import namespace="04591d74-042e-4909-9ae6-bc115388d8f2"/>
@@ -2378,32 +2405,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E480AC8-B063-456D-AB59-C66FDDCF5808}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2420,4 +2437,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{965CAB45-C4A2-4AD2-BF3C-51340EF36353}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{BD6007C6-1C3F-4C35-AF41-0332368B4BC2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2176,6 +2176,62 @@
         <v>7</v>
       </c>
     </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>47</v>
+      </c>
+      <c r="D93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>44026</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+      <c r="C94">
+        <v>44</v>
+      </c>
+      <c r="D94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B95">
+        <v>8</v>
+      </c>
+      <c r="C95">
+        <v>53</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B96">
+        <v>8</v>
+      </c>
+      <c r="C96">
+        <v>50</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2183,6 +2239,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CA7C97186F1BB408A6F387D684A3BB6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58c7cd5724ce370d4d73babe3356d4a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04591d74-042e-4909-9ae6-bc115388d8f2" xmlns:ns4="514868b4-9db6-4edd-a163-6c6915c701a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="257ff94f7eb6a2de2f3f859f9e8efae4" ns3:_="" ns4:_="">
     <xsd:import namespace="04591d74-042e-4909-9ae6-bc115388d8f2"/>
@@ -2405,22 +2476,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E480AC8-B063-456D-AB59-C66FDDCF5808}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2437,29 +2518,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{BD6007C6-1C3F-4C35-AF41-0332368B4BC2}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{57FBA3F5-FEB5-4C39-BC4C-04D8700A2854}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2232,6 +2232,62 @@
         <v>4</v>
       </c>
     </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>44029</v>
+      </c>
+      <c r="B97">
+        <v>8</v>
+      </c>
+      <c r="C97">
+        <v>58</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>44030</v>
+      </c>
+      <c r="B98">
+        <v>8</v>
+      </c>
+      <c r="C98">
+        <v>56</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>44031</v>
+      </c>
+      <c r="B99">
+        <v>9</v>
+      </c>
+      <c r="C99">
+        <v>55</v>
+      </c>
+      <c r="D99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>44032</v>
+      </c>
+      <c r="B100">
+        <v>8</v>
+      </c>
+      <c r="C100">
+        <v>43</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2239,21 +2295,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CA7C97186F1BB408A6F387D684A3BB6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58c7cd5724ce370d4d73babe3356d4a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04591d74-042e-4909-9ae6-bc115388d8f2" xmlns:ns4="514868b4-9db6-4edd-a163-6c6915c701a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="257ff94f7eb6a2de2f3f859f9e8efae4" ns3:_="" ns4:_="">
     <xsd:import namespace="04591d74-042e-4909-9ae6-bc115388d8f2"/>
@@ -2476,32 +2517,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E480AC8-B063-456D-AB59-C66FDDCF5808}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2518,4 +2549,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{57FBA3F5-FEB5-4C39-BC4C-04D8700A2854}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{E50A4EBD-7EF2-4D73-847A-AF94E6F697AC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2288,6 +2288,34 @@
         <v>5</v>
       </c>
     </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>44033</v>
+      </c>
+      <c r="B101">
+        <v>7</v>
+      </c>
+      <c r="C101">
+        <v>46</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>44034</v>
+      </c>
+      <c r="B102">
+        <v>6</v>
+      </c>
+      <c r="C102">
+        <v>49</v>
+      </c>
+      <c r="D102">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2295,6 +2323,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CA7C97186F1BB408A6F387D684A3BB6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58c7cd5724ce370d4d73babe3356d4a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04591d74-042e-4909-9ae6-bc115388d8f2" xmlns:ns4="514868b4-9db6-4edd-a163-6c6915c701a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="257ff94f7eb6a2de2f3f859f9e8efae4" ns3:_="" ns4:_="">
     <xsd:import namespace="04591d74-042e-4909-9ae6-bc115388d8f2"/>
@@ -2517,15 +2554,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2533,6 +2561,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E480AC8-B063-456D-AB59-C66FDDCF5808}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2551,25 +2587,17 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
     <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>

--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{E50A4EBD-7EF2-4D73-847A-AF94E6F697AC}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{CE98F881-797E-44F3-A4F9-B91290A6422D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2316,6 +2316,62 @@
         <v>4</v>
       </c>
     </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>44035</v>
+      </c>
+      <c r="B103">
+        <v>6</v>
+      </c>
+      <c r="C103">
+        <v>42</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>44036</v>
+      </c>
+      <c r="B104">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>47</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>44037</v>
+      </c>
+      <c r="B105">
+        <v>5</v>
+      </c>
+      <c r="C105">
+        <v>57</v>
+      </c>
+      <c r="D105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>44038</v>
+      </c>
+      <c r="B106">
+        <v>5</v>
+      </c>
+      <c r="C106">
+        <v>49</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2323,12 +2379,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2555,15 +2608,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2588,18 +2653,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{CE98F881-797E-44F3-A4F9-B91290A6422D}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{99148C96-34E2-42CA-99D4-352CF1D361C3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2372,6 +2372,48 @@
         <v>3</v>
       </c>
     </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>44039</v>
+      </c>
+      <c r="B107">
+        <v>6</v>
+      </c>
+      <c r="C107">
+        <v>44</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B108">
+        <v>6</v>
+      </c>
+      <c r="C108">
+        <v>45</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>44041</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>43</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2379,9 +2421,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2608,27 +2653,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2653,9 +2686,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{99148C96-34E2-42CA-99D4-352CF1D361C3}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{054E9EFE-C723-43D6-BCD3-8B6ADB517B84}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2414,6 +2414,20 @@
         <v>2</v>
       </c>
     </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>44042</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>48</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2421,15 +2435,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CA7C97186F1BB408A6F387D684A3BB6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58c7cd5724ce370d4d73babe3356d4a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04591d74-042e-4909-9ae6-bc115388d8f2" xmlns:ns4="514868b4-9db6-4edd-a163-6c6915c701a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="257ff94f7eb6a2de2f3f859f9e8efae4" ns3:_="" ns4:_="">
     <xsd:import namespace="04591d74-042e-4909-9ae6-bc115388d8f2"/>
@@ -2652,6 +2657,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2659,14 +2673,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E480AC8-B063-456D-AB59-C66FDDCF5808}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2681,6 +2687,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="226" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{054E9EFE-C723-43D6-BCD3-8B6ADB517B84}"/>
+  <xr:revisionPtr revIDLastSave="240" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{971445B7-C4CD-4EA3-8B9F-838E7CD4D5A5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2428,6 +2428,62 @@
         <v>2</v>
       </c>
     </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B111">
+        <v>4</v>
+      </c>
+      <c r="C111">
+        <v>47</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>52</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>44045</v>
+      </c>
+      <c r="B113">
+        <v>4</v>
+      </c>
+      <c r="C113">
+        <v>46</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>44046</v>
+      </c>
+      <c r="B114">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>47</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2435,6 +2491,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CA7C97186F1BB408A6F387D684A3BB6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58c7cd5724ce370d4d73babe3356d4a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04591d74-042e-4909-9ae6-bc115388d8f2" xmlns:ns4="514868b4-9db6-4edd-a163-6c6915c701a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="257ff94f7eb6a2de2f3f859f9e8efae4" ns3:_="" ns4:_="">
     <xsd:import namespace="04591d74-042e-4909-9ae6-bc115388d8f2"/>
@@ -2657,22 +2728,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E480AC8-B063-456D-AB59-C66FDDCF5808}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2689,29 +2770,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="240" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{971445B7-C4CD-4EA3-8B9F-838E7CD4D5A5}"/>
+  <xr:revisionPtr revIDLastSave="247" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6C5C160E-6E52-4F1D-83B7-A57068ED526A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2484,6 +2484,34 @@
         <v>3</v>
       </c>
     </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B115">
+        <v>5</v>
+      </c>
+      <c r="C115">
+        <v>45</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B116">
+        <v>6</v>
+      </c>
+      <c r="C116">
+        <v>39</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2491,21 +2519,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CA7C97186F1BB408A6F387D684A3BB6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58c7cd5724ce370d4d73babe3356d4a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04591d74-042e-4909-9ae6-bc115388d8f2" xmlns:ns4="514868b4-9db6-4edd-a163-6c6915c701a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="257ff94f7eb6a2de2f3f859f9e8efae4" ns3:_="" ns4:_="">
     <xsd:import namespace="04591d74-042e-4909-9ae6-bc115388d8f2"/>
@@ -2728,32 +2741,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E480AC8-B063-456D-AB59-C66FDDCF5808}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2770,4 +2773,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="247" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6C5C160E-6E52-4F1D-83B7-A57068ED526A}"/>
+  <xr:revisionPtr revIDLastSave="251" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1A41FE15-62F6-4407-9B4D-9215A699F396}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2512,6 +2512,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B117">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>34</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2519,6 +2533,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CA7C97186F1BB408A6F387D684A3BB6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58c7cd5724ce370d4d73babe3356d4a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04591d74-042e-4909-9ae6-bc115388d8f2" xmlns:ns4="514868b4-9db6-4edd-a163-6c6915c701a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="257ff94f7eb6a2de2f3f859f9e8efae4" ns3:_="" ns4:_="">
     <xsd:import namespace="04591d74-042e-4909-9ae6-bc115388d8f2"/>
@@ -2741,22 +2770,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E480AC8-B063-456D-AB59-C66FDDCF5808}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2773,29 +2812,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="251" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1A41FE15-62F6-4407-9B4D-9215A699F396}"/>
+  <xr:revisionPtr revIDLastSave="286" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BE3FD694-1AFA-4F71-A5F5-A985526B9BF4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2526,6 +2526,160 @@
         <v>1</v>
       </c>
     </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>35</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B119">
+        <v>6</v>
+      </c>
+      <c r="C119">
+        <v>47</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B120">
+        <v>6</v>
+      </c>
+      <c r="C120">
+        <v>43</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B121">
+        <v>7</v>
+      </c>
+      <c r="C121">
+        <v>34</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B122">
+        <v>5</v>
+      </c>
+      <c r="C122">
+        <v>35</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B123">
+        <v>6</v>
+      </c>
+      <c r="C123">
+        <v>39</v>
+      </c>
+      <c r="D123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B124">
+        <v>6</v>
+      </c>
+      <c r="C124">
+        <v>36</v>
+      </c>
+      <c r="D124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B125">
+        <v>8</v>
+      </c>
+      <c r="C125">
+        <v>33</v>
+      </c>
+      <c r="D125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B126">
+        <v>8</v>
+      </c>
+      <c r="C126">
+        <v>40</v>
+      </c>
+      <c r="D126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B127">
+        <v>8</v>
+      </c>
+      <c r="C127">
+        <v>42</v>
+      </c>
+      <c r="D127">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B128">
+        <v>8</v>
+      </c>
+      <c r="C128">
+        <v>33</v>
+      </c>
+      <c r="D128">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2533,21 +2687,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CA7C97186F1BB408A6F387D684A3BB6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58c7cd5724ce370d4d73babe3356d4a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04591d74-042e-4909-9ae6-bc115388d8f2" xmlns:ns4="514868b4-9db6-4edd-a163-6c6915c701a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="257ff94f7eb6a2de2f3f859f9e8efae4" ns3:_="" ns4:_="">
     <xsd:import namespace="04591d74-042e-4909-9ae6-bc115388d8f2"/>
@@ -2770,32 +2909,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E480AC8-B063-456D-AB59-C66FDDCF5808}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2812,4 +2941,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="286" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BE3FD694-1AFA-4F71-A5F5-A985526B9BF4}"/>
+  <xr:revisionPtr revIDLastSave="309" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E25ED505-715C-49CA-A602-03766C6DD6EA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2680,6 +2680,104 @@
         <v>4</v>
       </c>
     </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B129">
+        <v>7</v>
+      </c>
+      <c r="C129">
+        <v>31</v>
+      </c>
+      <c r="D129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B130">
+        <v>6</v>
+      </c>
+      <c r="C130">
+        <v>31</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B131">
+        <v>6</v>
+      </c>
+      <c r="C131">
+        <v>39</v>
+      </c>
+      <c r="D131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B132">
+        <v>6</v>
+      </c>
+      <c r="C132">
+        <v>46</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B133">
+        <v>6</v>
+      </c>
+      <c r="C133">
+        <v>52</v>
+      </c>
+      <c r="D133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B134">
+        <v>6</v>
+      </c>
+      <c r="C134">
+        <v>50</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B135">
+        <v>5</v>
+      </c>
+      <c r="C135">
+        <v>31</v>
+      </c>
+      <c r="D135">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2687,6 +2785,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CA7C97186F1BB408A6F387D684A3BB6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58c7cd5724ce370d4d73babe3356d4a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04591d74-042e-4909-9ae6-bc115388d8f2" xmlns:ns4="514868b4-9db6-4edd-a163-6c6915c701a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="257ff94f7eb6a2de2f3f859f9e8efae4" ns3:_="" ns4:_="">
     <xsd:import namespace="04591d74-042e-4909-9ae6-bc115388d8f2"/>
@@ -2909,22 +3022,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E480AC8-B063-456D-AB59-C66FDDCF5808}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2941,29 +3064,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="309" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E25ED505-715C-49CA-A602-03766C6DD6EA}"/>
+  <xr:revisionPtr revIDLastSave="313" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FE66D192-B3BC-41CF-8B1F-DBAB179F058F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+      <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2778,6 +2778,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B136">
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>31</v>
+      </c>
+      <c r="D136">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2785,21 +2799,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CA7C97186F1BB408A6F387D684A3BB6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58c7cd5724ce370d4d73babe3356d4a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04591d74-042e-4909-9ae6-bc115388d8f2" xmlns:ns4="514868b4-9db6-4edd-a163-6c6915c701a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="257ff94f7eb6a2de2f3f859f9e8efae4" ns3:_="" ns4:_="">
     <xsd:import namespace="04591d74-042e-4909-9ae6-bc115388d8f2"/>
@@ -3022,32 +3021,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E480AC8-B063-456D-AB59-C66FDDCF5808}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3064,4 +3053,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="313" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FE66D192-B3BC-41CF-8B1F-DBAB179F058F}"/>
+  <xr:revisionPtr revIDLastSave="352" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{038F9B36-76ED-4326-BEDA-DD2E061D6160}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="D136" sqref="D136"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2792,6 +2792,174 @@
         <v>3</v>
       </c>
     </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B137">
+        <v>4</v>
+      </c>
+      <c r="C137">
+        <v>35</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B138">
+        <v>5</v>
+      </c>
+      <c r="C138">
+        <v>40</v>
+      </c>
+      <c r="D138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B139">
+        <v>5</v>
+      </c>
+      <c r="C139">
+        <v>41</v>
+      </c>
+      <c r="D139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>44072</v>
+      </c>
+      <c r="B140">
+        <v>5</v>
+      </c>
+      <c r="C140">
+        <v>42</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B141">
+        <v>5</v>
+      </c>
+      <c r="C141">
+        <v>47</v>
+      </c>
+      <c r="D141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B142">
+        <v>6</v>
+      </c>
+      <c r="C142">
+        <v>41</v>
+      </c>
+      <c r="D142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B143">
+        <v>6</v>
+      </c>
+      <c r="C143">
+        <v>41</v>
+      </c>
+      <c r="D143">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B144">
+        <v>6</v>
+      </c>
+      <c r="C144">
+        <v>39</v>
+      </c>
+      <c r="D144">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B145">
+        <v>7</v>
+      </c>
+      <c r="C145">
+        <v>40</v>
+      </c>
+      <c r="D145">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B146">
+        <v>7</v>
+      </c>
+      <c r="C146">
+        <v>49</v>
+      </c>
+      <c r="D146">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B147">
+        <v>7</v>
+      </c>
+      <c r="C147">
+        <v>46</v>
+      </c>
+      <c r="D147">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B148">
+        <v>6</v>
+      </c>
+      <c r="C148">
+        <v>48</v>
+      </c>
+      <c r="D148">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2799,6 +2967,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CA7C97186F1BB408A6F387D684A3BB6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58c7cd5724ce370d4d73babe3356d4a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04591d74-042e-4909-9ae6-bc115388d8f2" xmlns:ns4="514868b4-9db6-4edd-a163-6c6915c701a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="257ff94f7eb6a2de2f3f859f9e8efae4" ns3:_="" ns4:_="">
     <xsd:import namespace="04591d74-042e-4909-9ae6-bc115388d8f2"/>
@@ -3021,22 +3204,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E480AC8-B063-456D-AB59-C66FDDCF5808}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3053,29 +3246,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="352" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{038F9B36-76ED-4326-BEDA-DD2E061D6160}"/>
+  <xr:revisionPtr revIDLastSave="405" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{153B2419-C207-4FCA-AEE4-7E7111567D01}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2960,6 +2960,244 @@
         <v>6</v>
       </c>
     </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B149">
+        <v>6</v>
+      </c>
+      <c r="C149">
+        <v>47</v>
+      </c>
+      <c r="D149">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B150">
+        <v>6</v>
+      </c>
+      <c r="C150">
+        <v>44</v>
+      </c>
+      <c r="D150">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B151">
+        <v>6</v>
+      </c>
+      <c r="C151">
+        <v>39</v>
+      </c>
+      <c r="D151">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B152">
+        <v>7</v>
+      </c>
+      <c r="C152">
+        <v>38</v>
+      </c>
+      <c r="D152">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B153">
+        <v>7</v>
+      </c>
+      <c r="C153">
+        <v>43</v>
+      </c>
+      <c r="D153">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B154">
+        <v>9</v>
+      </c>
+      <c r="C154">
+        <v>63</v>
+      </c>
+      <c r="D154">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B155">
+        <v>10</v>
+      </c>
+      <c r="C155">
+        <v>66</v>
+      </c>
+      <c r="D155">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B156">
+        <v>11</v>
+      </c>
+      <c r="C156">
+        <v>68</v>
+      </c>
+      <c r="D156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B157">
+        <v>13</v>
+      </c>
+      <c r="C157">
+        <v>62</v>
+      </c>
+      <c r="D157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B158">
+        <v>14</v>
+      </c>
+      <c r="C158">
+        <v>52</v>
+      </c>
+      <c r="D158">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>44091</v>
+      </c>
+      <c r="B159">
+        <v>14</v>
+      </c>
+      <c r="C159">
+        <v>48</v>
+      </c>
+      <c r="D159">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>44092</v>
+      </c>
+      <c r="B160">
+        <v>15</v>
+      </c>
+      <c r="C160">
+        <v>44</v>
+      </c>
+      <c r="D160">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B161">
+        <v>16</v>
+      </c>
+      <c r="C161">
+        <v>55</v>
+      </c>
+      <c r="D161">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>44094</v>
+      </c>
+      <c r="B162">
+        <v>16</v>
+      </c>
+      <c r="C162">
+        <v>53</v>
+      </c>
+      <c r="D162">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>44095</v>
+      </c>
+      <c r="B163">
+        <v>17</v>
+      </c>
+      <c r="C163">
+        <v>47</v>
+      </c>
+      <c r="D163">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>44096</v>
+      </c>
+      <c r="B164">
+        <v>16</v>
+      </c>
+      <c r="C164">
+        <v>47</v>
+      </c>
+      <c r="D164">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>44097</v>
+      </c>
+      <c r="B165">
+        <v>17</v>
+      </c>
+      <c r="C165">
+        <v>51</v>
+      </c>
+      <c r="D165">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2967,21 +3205,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CA7C97186F1BB408A6F387D684A3BB6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58c7cd5724ce370d4d73babe3356d4a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04591d74-042e-4909-9ae6-bc115388d8f2" xmlns:ns4="514868b4-9db6-4edd-a163-6c6915c701a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="257ff94f7eb6a2de2f3f859f9e8efae4" ns3:_="" ns4:_="">
     <xsd:import namespace="04591d74-042e-4909-9ae6-bc115388d8f2"/>
@@ -3204,32 +3427,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E480AC8-B063-456D-AB59-C66FDDCF5808}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3246,4 +3459,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="405" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{153B2419-C207-4FCA-AEE4-7E7111567D01}"/>
+  <xr:revisionPtr revIDLastSave="440" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3474E473-AEC8-410A-982F-CC1C7D751E9C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D165"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="B157" sqref="B157"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3198,6 +3198,160 @@
         <v>9</v>
       </c>
     </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>44098</v>
+      </c>
+      <c r="B166">
+        <v>16</v>
+      </c>
+      <c r="C166">
+        <v>50</v>
+      </c>
+      <c r="D166">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>44099</v>
+      </c>
+      <c r="B167">
+        <v>17</v>
+      </c>
+      <c r="C167">
+        <v>52</v>
+      </c>
+      <c r="D167">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B168">
+        <v>18</v>
+      </c>
+      <c r="C168">
+        <v>41</v>
+      </c>
+      <c r="D168">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>44101</v>
+      </c>
+      <c r="B169">
+        <v>17</v>
+      </c>
+      <c r="C169">
+        <v>51</v>
+      </c>
+      <c r="D169">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>44102</v>
+      </c>
+      <c r="B170">
+        <v>17</v>
+      </c>
+      <c r="C170">
+        <v>36</v>
+      </c>
+      <c r="D170">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>44103</v>
+      </c>
+      <c r="B171">
+        <v>18</v>
+      </c>
+      <c r="C171">
+        <v>37</v>
+      </c>
+      <c r="D171">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B172">
+        <v>22</v>
+      </c>
+      <c r="C172">
+        <v>43</v>
+      </c>
+      <c r="D172">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B173">
+        <v>20</v>
+      </c>
+      <c r="C173">
+        <v>45</v>
+      </c>
+      <c r="D173">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B174">
+        <v>21</v>
+      </c>
+      <c r="C174">
+        <v>42</v>
+      </c>
+      <c r="D174">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B175">
+        <v>20</v>
+      </c>
+      <c r="C175">
+        <v>45</v>
+      </c>
+      <c r="D175">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B176">
+        <v>21</v>
+      </c>
+      <c r="C176">
+        <v>46</v>
+      </c>
+      <c r="D176">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3205,6 +3359,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CA7C97186F1BB408A6F387D684A3BB6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58c7cd5724ce370d4d73babe3356d4a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04591d74-042e-4909-9ae6-bc115388d8f2" xmlns:ns4="514868b4-9db6-4edd-a163-6c6915c701a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="257ff94f7eb6a2de2f3f859f9e8efae4" ns3:_="" ns4:_="">
     <xsd:import namespace="04591d74-042e-4909-9ae6-bc115388d8f2"/>
@@ -3427,15 +3590,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3443,6 +3597,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E480AC8-B063-456D-AB59-C66FDDCF5808}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3457,14 +3619,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="440" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3474E473-AEC8-410A-982F-CC1C7D751E9C}"/>
+  <xr:revisionPtr revIDLastSave="463" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4D1A4EB6-8DF5-47EC-9766-3B49C508DA8D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D176"/>
+  <dimension ref="A1:D183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="C176" sqref="C176"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3352,6 +3352,104 @@
         <v>6</v>
       </c>
     </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B177">
+        <v>23</v>
+      </c>
+      <c r="C177">
+        <v>41</v>
+      </c>
+      <c r="D177">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B178">
+        <v>24</v>
+      </c>
+      <c r="C178">
+        <v>33</v>
+      </c>
+      <c r="D178">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B179">
+        <v>27</v>
+      </c>
+      <c r="C179">
+        <v>33</v>
+      </c>
+      <c r="D179">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B180">
+        <v>27</v>
+      </c>
+      <c r="C180">
+        <v>41</v>
+      </c>
+      <c r="D180">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B181">
+        <v>31</v>
+      </c>
+      <c r="C181">
+        <v>43</v>
+      </c>
+      <c r="D181">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B182">
+        <v>30</v>
+      </c>
+      <c r="C182">
+        <v>42</v>
+      </c>
+      <c r="D182">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B183">
+        <v>30</v>
+      </c>
+      <c r="C183">
+        <v>43</v>
+      </c>
+      <c r="D183">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3359,12 +3457,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3591,15 +3686,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3624,18 +3731,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="463" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4D1A4EB6-8DF5-47EC-9766-3B49C508DA8D}"/>
+  <xr:revisionPtr revIDLastSave="476" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4BD03E74-C458-4969-84E8-F126B2604DDA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D183"/>
+  <dimension ref="A1:D187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="D183" sqref="D183"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3450,6 +3450,62 @@
         <v>19</v>
       </c>
     </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B184">
+        <v>32</v>
+      </c>
+      <c r="C184">
+        <v>33</v>
+      </c>
+      <c r="D184">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B185">
+        <v>31</v>
+      </c>
+      <c r="C185">
+        <v>32</v>
+      </c>
+      <c r="D185">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B186">
+        <v>30</v>
+      </c>
+      <c r="C186">
+        <v>44</v>
+      </c>
+      <c r="D186">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B187">
+        <v>29</v>
+      </c>
+      <c r="C187">
+        <v>41</v>
+      </c>
+      <c r="D187">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3457,9 +3513,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3686,27 +3745,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3731,9 +3778,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="476" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4BD03E74-C458-4969-84E8-F126B2604DDA}"/>
+  <xr:revisionPtr revIDLastSave="489" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F82B7F7C-DA72-46F0-A6D2-E3D9308CFFF8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:D191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="C188" sqref="C188"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="C191" sqref="C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3506,6 +3506,62 @@
         <v>20</v>
       </c>
     </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B188">
+        <v>30</v>
+      </c>
+      <c r="C188">
+        <v>37</v>
+      </c>
+      <c r="D188">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B189">
+        <v>30</v>
+      </c>
+      <c r="C189">
+        <v>44</v>
+      </c>
+      <c r="D189">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B190">
+        <v>31</v>
+      </c>
+      <c r="C190">
+        <v>60</v>
+      </c>
+      <c r="D190">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B191">
+        <v>32</v>
+      </c>
+      <c r="C191">
+        <v>39</v>
+      </c>
+      <c r="D191">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3513,12 +3569,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3745,15 +3798,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3778,18 +3843,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="489" documentId="6_{C79A1026-B183-4477-861F-E8251FC0E225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F82B7F7C-DA72-46F0-A6D2-E3D9308CFFF8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4CAD68-FD65-4DAA-BE9B-BC8825B5C7D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D191"/>
+  <dimension ref="A1:D199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="C191" sqref="C191"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="C199" sqref="C199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3562,6 +3562,118 @@
         <v>20</v>
       </c>
     </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B192">
+        <v>34</v>
+      </c>
+      <c r="C192">
+        <v>51</v>
+      </c>
+      <c r="D192">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B193">
+        <v>35</v>
+      </c>
+      <c r="C193">
+        <v>45</v>
+      </c>
+      <c r="D193">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>44126</v>
+      </c>
+      <c r="B194">
+        <v>37</v>
+      </c>
+      <c r="C194">
+        <v>47</v>
+      </c>
+      <c r="D194">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B195">
+        <v>38</v>
+      </c>
+      <c r="C195">
+        <v>42</v>
+      </c>
+      <c r="D195">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B196">
+        <v>39</v>
+      </c>
+      <c r="C196">
+        <v>50</v>
+      </c>
+      <c r="D196">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B197">
+        <v>38</v>
+      </c>
+      <c r="C197">
+        <v>49</v>
+      </c>
+      <c r="D197">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B198">
+        <v>38</v>
+      </c>
+      <c r="C198">
+        <v>44</v>
+      </c>
+      <c r="D198">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B199">
+        <v>40</v>
+      </c>
+      <c r="C199">
+        <v>41</v>
+      </c>
+      <c r="D199">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3569,9 +3681,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3798,27 +3913,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3843,9 +3946,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4CAD68-FD65-4DAA-BE9B-BC8825B5C7D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="6_{E0863660-0D9E-4360-A3FF-199DB4A2503B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CF64F1B7-5A65-491B-B52B-063D0C5AAAE1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D199"/>
+  <dimension ref="A1:D203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="C199" sqref="C199"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="C204" sqref="C204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3674,6 +3674,62 @@
         <v>27</v>
       </c>
     </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B200">
+        <v>42</v>
+      </c>
+      <c r="C200">
+        <v>43</v>
+      </c>
+      <c r="D200">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B201">
+        <v>41</v>
+      </c>
+      <c r="C201">
+        <v>49</v>
+      </c>
+      <c r="D201">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B202">
+        <v>43</v>
+      </c>
+      <c r="C202">
+        <v>52</v>
+      </c>
+      <c r="D202">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B203">
+        <v>44</v>
+      </c>
+      <c r="C203">
+        <v>47</v>
+      </c>
+      <c r="D203">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3681,12 +3737,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3913,15 +3966,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3946,18 +4011,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="6_{E0863660-0D9E-4360-A3FF-199DB4A2503B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CF64F1B7-5A65-491B-B52B-063D0C5AAAE1}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="6_{E0863660-0D9E-4360-A3FF-199DB4A2503B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7BD2EDA5-C9A7-4F75-BB30-ED90353BE621}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D203"/>
+  <dimension ref="A1:D205"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="C204" sqref="C204"/>
+      <selection activeCell="C205" sqref="C205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3730,6 +3730,34 @@
         <v>25</v>
       </c>
     </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B204">
+        <v>44</v>
+      </c>
+      <c r="C204">
+        <v>49</v>
+      </c>
+      <c r="D204">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B205">
+        <v>43</v>
+      </c>
+      <c r="C205">
+        <v>42</v>
+      </c>
+      <c r="D205">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3737,9 +3765,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3966,27 +3997,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4011,9 +4030,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="6_{E0863660-0D9E-4360-A3FF-199DB4A2503B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7BD2EDA5-C9A7-4F75-BB30-ED90353BE621}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="6_{E0863660-0D9E-4360-A3FF-199DB4A2503B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{245E657C-8B5E-41D7-9E28-F98D427A92CA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D205"/>
+  <dimension ref="A1:D207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="C205" sqref="C205"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="C208" sqref="C208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3758,6 +3758,34 @@
         <v>24</v>
       </c>
     </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B206">
+        <v>40</v>
+      </c>
+      <c r="C206">
+        <v>51</v>
+      </c>
+      <c r="D206">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B207">
+        <v>38</v>
+      </c>
+      <c r="C207">
+        <v>50</v>
+      </c>
+      <c r="D207">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3765,12 +3793,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3997,15 +4022,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4030,18 +4067,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="6_{E0863660-0D9E-4360-A3FF-199DB4A2503B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{245E657C-8B5E-41D7-9E28-F98D427A92CA}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="6_{E0863660-0D9E-4360-A3FF-199DB4A2503B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AB82D7DB-0049-4694-BE8F-D7545F0EA4CD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D207"/>
+  <dimension ref="A1:D213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="C208" sqref="C208"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="D214" sqref="D214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3786,6 +3786,90 @@
         <v>23</v>
       </c>
     </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B208">
+        <v>37</v>
+      </c>
+      <c r="C208">
+        <v>47</v>
+      </c>
+      <c r="D208">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B209">
+        <v>39</v>
+      </c>
+      <c r="C209">
+        <v>48</v>
+      </c>
+      <c r="D209">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B210">
+        <v>39</v>
+      </c>
+      <c r="C210">
+        <v>54</v>
+      </c>
+      <c r="D210">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B211">
+        <v>40</v>
+      </c>
+      <c r="C211">
+        <v>40</v>
+      </c>
+      <c r="D211">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B212">
+        <v>39</v>
+      </c>
+      <c r="C212">
+        <v>43</v>
+      </c>
+      <c r="D212">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B213">
+        <v>39</v>
+      </c>
+      <c r="C213">
+        <v>34</v>
+      </c>
+      <c r="D213">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3793,9 +3877,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4022,27 +4109,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4067,9 +4142,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="6_{E0863660-0D9E-4360-A3FF-199DB4A2503B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AB82D7DB-0049-4694-BE8F-D7545F0EA4CD}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="6_{E0863660-0D9E-4360-A3FF-199DB4A2503B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{85BCDB35-B1F1-42F2-9011-997062CC18C6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D213"/>
+  <dimension ref="A1:D214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="D214" sqref="D214"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="A213" sqref="A213:A214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3870,6 +3870,20 @@
         <v>24</v>
       </c>
     </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B214">
+        <v>38</v>
+      </c>
+      <c r="C214">
+        <v>47</v>
+      </c>
+      <c r="D214">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3877,12 +3891,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4109,15 +4120,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4142,18 +4165,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="6_{E0863660-0D9E-4360-A3FF-199DB4A2503B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{85BCDB35-B1F1-42F2-9011-997062CC18C6}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="6_{E0863660-0D9E-4360-A3FF-199DB4A2503B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6A934C27-C91F-4867-9FD0-31BB9C015AFF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D214"/>
+  <dimension ref="A1:D218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213:A214"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="E218" sqref="E218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3884,6 +3884,62 @@
         <v>23</v>
       </c>
     </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B215">
+        <v>33</v>
+      </c>
+      <c r="C215">
+        <v>44</v>
+      </c>
+      <c r="D215">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B216">
+        <v>33</v>
+      </c>
+      <c r="C216">
+        <v>48</v>
+      </c>
+      <c r="D216">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B217">
+        <v>30</v>
+      </c>
+      <c r="C217">
+        <v>52</v>
+      </c>
+      <c r="D217">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B218">
+        <v>34</v>
+      </c>
+      <c r="C218">
+        <v>45</v>
+      </c>
+      <c r="D218">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3891,9 +3947,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4120,27 +4179,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4165,9 +4212,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="6_{E0863660-0D9E-4360-A3FF-199DB4A2503B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6A934C27-C91F-4867-9FD0-31BB9C015AFF}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="6_{E0863660-0D9E-4360-A3FF-199DB4A2503B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AFD3BF4C-2C26-4D5C-B33A-69D392937BD5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D218"/>
+  <dimension ref="A1:D239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="E218" sqref="E218"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="D233" sqref="D233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3940,6 +3940,300 @@
         <v>20</v>
       </c>
     </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B219">
+        <v>34</v>
+      </c>
+      <c r="C219">
+        <v>42</v>
+      </c>
+      <c r="D219">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B220">
+        <v>33</v>
+      </c>
+      <c r="C220">
+        <v>47</v>
+      </c>
+      <c r="D220">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B221">
+        <v>32</v>
+      </c>
+      <c r="C221">
+        <v>40</v>
+      </c>
+      <c r="D221">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B222">
+        <v>32</v>
+      </c>
+      <c r="C222">
+        <v>45</v>
+      </c>
+      <c r="D222">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B223">
+        <v>32</v>
+      </c>
+      <c r="C223">
+        <v>66</v>
+      </c>
+      <c r="D223">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B224">
+        <v>31</v>
+      </c>
+      <c r="C224">
+        <v>74</v>
+      </c>
+      <c r="D224">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B225">
+        <v>33</v>
+      </c>
+      <c r="C225">
+        <v>48</v>
+      </c>
+      <c r="D225">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B226">
+        <v>37</v>
+      </c>
+      <c r="C226">
+        <v>50</v>
+      </c>
+      <c r="D226">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B227">
+        <v>36</v>
+      </c>
+      <c r="C227">
+        <v>35</v>
+      </c>
+      <c r="D227">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B228">
+        <v>36</v>
+      </c>
+      <c r="C228">
+        <v>33</v>
+      </c>
+      <c r="D228">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B229">
+        <v>34</v>
+      </c>
+      <c r="C229">
+        <v>38</v>
+      </c>
+      <c r="D229">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B230">
+        <v>31</v>
+      </c>
+      <c r="C230">
+        <v>51</v>
+      </c>
+      <c r="D230">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B231">
+        <v>30</v>
+      </c>
+      <c r="C231">
+        <v>62</v>
+      </c>
+      <c r="D231">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B232">
+        <v>30</v>
+      </c>
+      <c r="C232">
+        <v>52</v>
+      </c>
+      <c r="D232">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B233">
+        <v>31</v>
+      </c>
+      <c r="C233">
+        <v>53</v>
+      </c>
+      <c r="D233">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B234">
+        <v>31</v>
+      </c>
+      <c r="C234">
+        <v>46</v>
+      </c>
+      <c r="D234">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B235">
+        <v>32</v>
+      </c>
+      <c r="C235">
+        <v>51</v>
+      </c>
+      <c r="D235">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B236">
+        <v>29</v>
+      </c>
+      <c r="C236">
+        <v>52</v>
+      </c>
+      <c r="D236">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B237">
+        <v>28</v>
+      </c>
+      <c r="C237">
+        <v>59</v>
+      </c>
+      <c r="D237">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B238">
+        <v>28</v>
+      </c>
+      <c r="C238">
+        <v>70</v>
+      </c>
+      <c r="D238">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B239">
+        <v>28</v>
+      </c>
+      <c r="C239">
+        <v>50</v>
+      </c>
+      <c r="D239">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3947,12 +4241,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4179,15 +4470,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4212,18 +4515,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="6_{E0863660-0D9E-4360-A3FF-199DB4A2503B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AFD3BF4C-2C26-4D5C-B33A-69D392937BD5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02279D8-045B-4938-8A97-241ECB5B5309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D239"/>
+  <dimension ref="A1:D265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="D233" sqref="D233"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="D266" sqref="D266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4234,6 +4234,370 @@
         <v>18</v>
       </c>
     </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B240">
+        <v>31</v>
+      </c>
+      <c r="C240">
+        <v>40</v>
+      </c>
+      <c r="D240">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B241">
+        <v>37</v>
+      </c>
+      <c r="C241">
+        <v>36</v>
+      </c>
+      <c r="D241">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B242">
+        <v>35</v>
+      </c>
+      <c r="C242">
+        <v>38</v>
+      </c>
+      <c r="D242">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B243">
+        <v>34</v>
+      </c>
+      <c r="C243">
+        <v>33</v>
+      </c>
+      <c r="D243">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B244">
+        <v>31</v>
+      </c>
+      <c r="C244">
+        <v>49</v>
+      </c>
+      <c r="D244">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B245">
+        <v>30</v>
+      </c>
+      <c r="C245">
+        <v>38</v>
+      </c>
+      <c r="D245">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B246">
+        <v>33</v>
+      </c>
+      <c r="C246">
+        <v>32</v>
+      </c>
+      <c r="D246">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B247">
+        <v>31</v>
+      </c>
+      <c r="C247">
+        <v>38</v>
+      </c>
+      <c r="D247">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B248">
+        <v>27</v>
+      </c>
+      <c r="C248">
+        <v>36</v>
+      </c>
+      <c r="D248">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B249">
+        <v>29</v>
+      </c>
+      <c r="C249">
+        <v>34</v>
+      </c>
+      <c r="D249">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>44183</v>
+      </c>
+      <c r="B250">
+        <v>31</v>
+      </c>
+      <c r="C250">
+        <v>29</v>
+      </c>
+      <c r="D250">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>44184</v>
+      </c>
+      <c r="B251">
+        <v>29</v>
+      </c>
+      <c r="C251">
+        <v>27</v>
+      </c>
+      <c r="D251">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>44185</v>
+      </c>
+      <c r="B252">
+        <v>29</v>
+      </c>
+      <c r="C252">
+        <v>48</v>
+      </c>
+      <c r="D252">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B253">
+        <v>30</v>
+      </c>
+      <c r="C253">
+        <v>43</v>
+      </c>
+      <c r="D253">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>44187</v>
+      </c>
+      <c r="B254">
+        <v>28</v>
+      </c>
+      <c r="C254">
+        <v>36</v>
+      </c>
+      <c r="D254">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>44188</v>
+      </c>
+      <c r="B255">
+        <v>25</v>
+      </c>
+      <c r="C255">
+        <v>53</v>
+      </c>
+      <c r="D255">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>44189</v>
+      </c>
+      <c r="B256">
+        <v>22</v>
+      </c>
+      <c r="C256">
+        <v>72</v>
+      </c>
+      <c r="D256">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>44190</v>
+      </c>
+      <c r="B257">
+        <v>25</v>
+      </c>
+      <c r="C257">
+        <v>80</v>
+      </c>
+      <c r="D257">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>44191</v>
+      </c>
+      <c r="B258">
+        <v>23</v>
+      </c>
+      <c r="C258">
+        <v>78</v>
+      </c>
+      <c r="D258">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>44192</v>
+      </c>
+      <c r="B259">
+        <v>27</v>
+      </c>
+      <c r="C259">
+        <v>77</v>
+      </c>
+      <c r="D259">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>44193</v>
+      </c>
+      <c r="B260">
+        <v>30</v>
+      </c>
+      <c r="C260">
+        <v>68</v>
+      </c>
+      <c r="D260">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B261">
+        <v>34</v>
+      </c>
+      <c r="C261">
+        <v>46</v>
+      </c>
+      <c r="D261">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B262">
+        <v>39</v>
+      </c>
+      <c r="C262">
+        <v>55</v>
+      </c>
+      <c r="D262">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B263">
+        <v>41</v>
+      </c>
+      <c r="C263">
+        <v>42</v>
+      </c>
+      <c r="D263">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B264">
+        <v>50</v>
+      </c>
+      <c r="C264">
+        <v>57</v>
+      </c>
+      <c r="D264">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B265">
+        <v>56</v>
+      </c>
+      <c r="C265">
+        <v>65</v>
+      </c>
+      <c r="D265">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4241,9 +4605,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4470,27 +4837,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4515,9 +4870,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02279D8-045B-4938-8A97-241ECB5B5309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="6_{B2A228BD-9186-44A5-8161-7F57BE69B8BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E2888103-DF76-42C2-8184-479EB2D942D8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D265"/>
+  <dimension ref="A1:D267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="D266" sqref="D266"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="E267" sqref="E267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4598,6 +4598,34 @@
         <v>30</v>
       </c>
     </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>44199</v>
+      </c>
+      <c r="B266">
+        <v>65</v>
+      </c>
+      <c r="C266">
+        <v>56</v>
+      </c>
+      <c r="D266">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>44200</v>
+      </c>
+      <c r="B267">
+        <v>72</v>
+      </c>
+      <c r="C267">
+        <v>52</v>
+      </c>
+      <c r="D267">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4605,15 +4633,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CA7C97186F1BB408A6F387D684A3BB6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58c7cd5724ce370d4d73babe3356d4a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04591d74-042e-4909-9ae6-bc115388d8f2" xmlns:ns4="514868b4-9db6-4edd-a163-6c6915c701a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="257ff94f7eb6a2de2f3f859f9e8efae4" ns3:_="" ns4:_="">
     <xsd:import namespace="04591d74-042e-4909-9ae6-bc115388d8f2"/>
@@ -4836,6 +4855,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4843,14 +4871,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E480AC8-B063-456D-AB59-C66FDDCF5808}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4865,6 +4885,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="6_{B2A228BD-9186-44A5-8161-7F57BE69B8BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E2888103-DF76-42C2-8184-479EB2D942D8}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="6_{B2A228BD-9186-44A5-8161-7F57BE69B8BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B47C4AC4-34AE-421A-BD4D-534694AED1E0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D267"/>
+  <dimension ref="A1:D270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="E267" sqref="E267"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="B270" sqref="B270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4626,6 +4626,48 @@
         <v>38</v>
       </c>
     </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B268">
+        <v>75</v>
+      </c>
+      <c r="C268">
+        <v>28</v>
+      </c>
+      <c r="D268">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>44202</v>
+      </c>
+      <c r="B269">
+        <v>88</v>
+      </c>
+      <c r="C269">
+        <v>31</v>
+      </c>
+      <c r="D269">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>44203</v>
+      </c>
+      <c r="B270">
+        <v>101</v>
+      </c>
+      <c r="C270">
+        <v>30</v>
+      </c>
+      <c r="D270">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4633,6 +4675,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CA7C97186F1BB408A6F387D684A3BB6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58c7cd5724ce370d4d73babe3356d4a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04591d74-042e-4909-9ae6-bc115388d8f2" xmlns:ns4="514868b4-9db6-4edd-a163-6c6915c701a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="257ff94f7eb6a2de2f3f859f9e8efae4" ns3:_="" ns4:_="">
     <xsd:import namespace="04591d74-042e-4909-9ae6-bc115388d8f2"/>
@@ -4855,22 +4912,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E480AC8-B063-456D-AB59-C66FDDCF5808}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4887,29 +4954,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="6_{B2A228BD-9186-44A5-8161-7F57BE69B8BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B47C4AC4-34AE-421A-BD4D-534694AED1E0}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="6_{B2A228BD-9186-44A5-8161-7F57BE69B8BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{01FDB058-8573-4457-9FA3-96EC15967D87}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D270"/>
+  <dimension ref="A1:D274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="B270" sqref="B270"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="C274" sqref="C274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4668,6 +4668,62 @@
         <v>62</v>
       </c>
     </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B271">
+        <v>107</v>
+      </c>
+      <c r="C271">
+        <v>34</v>
+      </c>
+      <c r="D271">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>44205</v>
+      </c>
+      <c r="B272">
+        <v>120</v>
+      </c>
+      <c r="C272">
+        <v>48</v>
+      </c>
+      <c r="D272">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>44206</v>
+      </c>
+      <c r="B273">
+        <v>127</v>
+      </c>
+      <c r="C273">
+        <v>49</v>
+      </c>
+      <c r="D273">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B274">
+        <v>143</v>
+      </c>
+      <c r="C274">
+        <v>37</v>
+      </c>
+      <c r="D274">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4675,21 +4731,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CA7C97186F1BB408A6F387D684A3BB6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58c7cd5724ce370d4d73babe3356d4a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04591d74-042e-4909-9ae6-bc115388d8f2" xmlns:ns4="514868b4-9db6-4edd-a163-6c6915c701a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="257ff94f7eb6a2de2f3f859f9e8efae4" ns3:_="" ns4:_="">
     <xsd:import namespace="04591d74-042e-4909-9ae6-bc115388d8f2"/>
@@ -4912,32 +4953,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E480AC8-B063-456D-AB59-C66FDDCF5808}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4954,4 +4985,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="6_{B2A228BD-9186-44A5-8161-7F57BE69B8BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{01FDB058-8573-4457-9FA3-96EC15967D87}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="6_{B2A228BD-9186-44A5-8161-7F57BE69B8BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BC1DB6C1-442C-45D4-AA64-9995C159465F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D274"/>
+  <dimension ref="A1:D280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="C274" sqref="C274"/>
+    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="N270" sqref="N270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4724,6 +4724,90 @@
         <v>74</v>
       </c>
     </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>44208</v>
+      </c>
+      <c r="B275">
+        <v>158</v>
+      </c>
+      <c r="C275">
+        <v>35</v>
+      </c>
+      <c r="D275">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>44209</v>
+      </c>
+      <c r="B276">
+        <v>174</v>
+      </c>
+      <c r="C276">
+        <v>38</v>
+      </c>
+      <c r="D276">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>44210</v>
+      </c>
+      <c r="B277">
+        <v>171</v>
+      </c>
+      <c r="C277">
+        <v>32</v>
+      </c>
+      <c r="D277">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>44211</v>
+      </c>
+      <c r="B278">
+        <v>185</v>
+      </c>
+      <c r="C278">
+        <v>34</v>
+      </c>
+      <c r="D278">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>44212</v>
+      </c>
+      <c r="B279">
+        <v>186</v>
+      </c>
+      <c r="C279">
+        <v>38</v>
+      </c>
+      <c r="D279">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>44213</v>
+      </c>
+      <c r="B280">
+        <v>193</v>
+      </c>
+      <c r="C280">
+        <v>34</v>
+      </c>
+      <c r="D280">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4731,6 +4815,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CA7C97186F1BB408A6F387D684A3BB6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58c7cd5724ce370d4d73babe3356d4a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04591d74-042e-4909-9ae6-bc115388d8f2" xmlns:ns4="514868b4-9db6-4edd-a163-6c6915c701a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="257ff94f7eb6a2de2f3f859f9e8efae4" ns3:_="" ns4:_="">
     <xsd:import namespace="04591d74-042e-4909-9ae6-bc115388d8f2"/>
@@ -4953,22 +5052,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E480AC8-B063-456D-AB59-C66FDDCF5808}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4985,29 +5094,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04591d74-042e-4909-9ae6-bc115388d8f2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drelihan\OneDrive - Intel Corporation\Documents\ireland_covid19_analysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/david_relihan_intel_com/Documents/Documents/ireland_covid19_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="6_{B2A228BD-9186-44A5-8161-7F57BE69B8BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BC1DB6C1-442C-45D4-AA64-9995C159465F}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="6_{B2A228BD-9186-44A5-8161-7F57BE69B8BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2501672E-B37B-417B-A7EA-C67114ECB3F8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D280"/>
+  <dimension ref="A1:D294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="N270" sqref="N270"/>
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="E294" sqref="E294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4808,6 +4808,202 @@
         <v>108</v>
       </c>
     </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>44214</v>
+      </c>
+      <c r="B281">
+        <v>196</v>
+      </c>
+      <c r="C281">
+        <v>33</v>
+      </c>
+      <c r="D281">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>44215</v>
+      </c>
+      <c r="B282">
+        <v>206</v>
+      </c>
+      <c r="C282">
+        <v>35</v>
+      </c>
+      <c r="D282">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>44216</v>
+      </c>
+      <c r="B283">
+        <v>207</v>
+      </c>
+      <c r="C283">
+        <v>38</v>
+      </c>
+      <c r="D283">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>44217</v>
+      </c>
+      <c r="B284">
+        <v>211</v>
+      </c>
+      <c r="C284">
+        <v>36</v>
+      </c>
+      <c r="D284">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>44218</v>
+      </c>
+      <c r="B285">
+        <v>215</v>
+      </c>
+      <c r="C285">
+        <v>33</v>
+      </c>
+      <c r="D285">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>44219</v>
+      </c>
+      <c r="B286">
+        <v>214</v>
+      </c>
+      <c r="C286">
+        <v>32</v>
+      </c>
+      <c r="D286">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>44220</v>
+      </c>
+      <c r="B287">
+        <v>219</v>
+      </c>
+      <c r="C287">
+        <v>35</v>
+      </c>
+      <c r="D287">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>44221</v>
+      </c>
+      <c r="B288">
+        <v>217</v>
+      </c>
+      <c r="C288">
+        <v>37</v>
+      </c>
+      <c r="D288">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>44222</v>
+      </c>
+      <c r="B289">
+        <v>215</v>
+      </c>
+      <c r="C289">
+        <v>32</v>
+      </c>
+      <c r="D289">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>44223</v>
+      </c>
+      <c r="B290">
+        <v>211</v>
+      </c>
+      <c r="C290">
+        <v>30</v>
+      </c>
+      <c r="D290">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>44224</v>
+      </c>
+      <c r="B291">
+        <v>213</v>
+      </c>
+      <c r="C291">
+        <v>30</v>
+      </c>
+      <c r="D291">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>44225</v>
+      </c>
+      <c r="B292">
+        <v>210</v>
+      </c>
+      <c r="C292">
+        <v>33</v>
+      </c>
+      <c r="D292">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>44226</v>
+      </c>
+      <c r="B293">
+        <v>212</v>
+      </c>
+      <c r="C293">
+        <v>41</v>
+      </c>
+      <c r="D293">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>44227</v>
+      </c>
+      <c r="B294">
+        <v>209</v>
+      </c>
+      <c r="C294">
+        <v>34</v>
+      </c>
+      <c r="D294">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4815,18 +5011,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5053,6 +5249,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -5065,14 +5269,6 @@
     <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/david_relihan_intel_com/Documents/Documents/ireland_covid19_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="6_{B2A228BD-9186-44A5-8161-7F57BE69B8BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2501672E-B37B-417B-A7EA-C67114ECB3F8}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="6_{B2A228BD-9186-44A5-8161-7F57BE69B8BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F9C12413-D612-4528-AB28-BBDB7559FC58}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D294"/>
+  <dimension ref="A1:D302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
-      <selection activeCell="E294" sqref="E294"/>
+    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
+      <selection activeCell="C302" sqref="C302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5004,6 +5004,118 @@
         <v>129</v>
       </c>
     </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>44228</v>
+      </c>
+      <c r="B295">
+        <v>204</v>
+      </c>
+      <c r="C295">
+        <v>32</v>
+      </c>
+      <c r="D295">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>44229</v>
+      </c>
+      <c r="B296">
+        <v>205</v>
+      </c>
+      <c r="C296">
+        <v>44</v>
+      </c>
+      <c r="D296">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>44230</v>
+      </c>
+      <c r="B297">
+        <v>198</v>
+      </c>
+      <c r="C297">
+        <v>37</v>
+      </c>
+      <c r="D297">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>44231</v>
+      </c>
+      <c r="B298">
+        <v>183</v>
+      </c>
+      <c r="C298">
+        <v>40</v>
+      </c>
+      <c r="D298">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>44232</v>
+      </c>
+      <c r="B299">
+        <v>177</v>
+      </c>
+      <c r="C299">
+        <v>29</v>
+      </c>
+      <c r="D299">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>44233</v>
+      </c>
+      <c r="B300">
+        <v>178</v>
+      </c>
+      <c r="C300">
+        <v>43</v>
+      </c>
+      <c r="D300">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>44234</v>
+      </c>
+      <c r="B301">
+        <v>177</v>
+      </c>
+      <c r="C301">
+        <v>43</v>
+      </c>
+      <c r="D301">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>44235</v>
+      </c>
+      <c r="B302">
+        <v>173</v>
+      </c>
+      <c r="C302">
+        <v>52</v>
+      </c>
+      <c r="D302">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5011,18 +5123,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5249,14 +5361,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -5269,6 +5373,14 @@
     <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/david_relihan_intel_com/Documents/Documents/ireland_covid19_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="6_{B2A228BD-9186-44A5-8161-7F57BE69B8BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F9C12413-D612-4528-AB28-BBDB7559FC58}"/>
+  <xr:revisionPtr revIDLastSave="294" documentId="6_{B2A228BD-9186-44A5-8161-7F57BE69B8BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A1BAFB90-5784-45D8-85AD-143A312E8FC8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D302"/>
+  <dimension ref="A1:D359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
-      <selection activeCell="C302" sqref="C302"/>
+    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="D349" sqref="D349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5116,6 +5116,804 @@
         <v>128</v>
       </c>
     </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>44236</v>
+      </c>
+      <c r="B303">
+        <v>175</v>
+      </c>
+      <c r="C303">
+        <v>44</v>
+      </c>
+      <c r="D303">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>44237</v>
+      </c>
+      <c r="B304">
+        <v>167</v>
+      </c>
+      <c r="C304">
+        <v>40</v>
+      </c>
+      <c r="D304">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>44238</v>
+      </c>
+      <c r="B305">
+        <v>167</v>
+      </c>
+      <c r="C305">
+        <v>34</v>
+      </c>
+      <c r="D305">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <v>44239</v>
+      </c>
+      <c r="B306">
+        <v>169</v>
+      </c>
+      <c r="C306">
+        <v>33</v>
+      </c>
+      <c r="D306">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>44240</v>
+      </c>
+      <c r="B307">
+        <v>167</v>
+      </c>
+      <c r="C307">
+        <v>42</v>
+      </c>
+      <c r="D307">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>44241</v>
+      </c>
+      <c r="B308">
+        <v>157</v>
+      </c>
+      <c r="C308">
+        <v>49</v>
+      </c>
+      <c r="D308">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <v>44242</v>
+      </c>
+      <c r="B309">
+        <v>155</v>
+      </c>
+      <c r="C309">
+        <v>42</v>
+      </c>
+      <c r="D309">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>44243</v>
+      </c>
+      <c r="B310">
+        <v>151</v>
+      </c>
+      <c r="C310">
+        <v>40</v>
+      </c>
+      <c r="D310">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>44244</v>
+      </c>
+      <c r="B311">
+        <v>151</v>
+      </c>
+      <c r="C311">
+        <v>46</v>
+      </c>
+      <c r="D311">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B312">
+        <v>148</v>
+      </c>
+      <c r="C312">
+        <v>36</v>
+      </c>
+      <c r="D312">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B313">
+        <v>151</v>
+      </c>
+      <c r="C313">
+        <v>29</v>
+      </c>
+      <c r="D313">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B314">
+        <v>147</v>
+      </c>
+      <c r="C314">
+        <v>40</v>
+      </c>
+      <c r="D314">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>44248</v>
+      </c>
+      <c r="B315">
+        <v>149</v>
+      </c>
+      <c r="C315">
+        <v>45</v>
+      </c>
+      <c r="D315">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B316">
+        <v>154</v>
+      </c>
+      <c r="C316">
+        <v>35</v>
+      </c>
+      <c r="D316">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B317">
+        <v>149</v>
+      </c>
+      <c r="C317">
+        <v>40</v>
+      </c>
+      <c r="D317">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B318">
+        <v>135</v>
+      </c>
+      <c r="C318">
+        <v>41</v>
+      </c>
+      <c r="D318">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>44252</v>
+      </c>
+      <c r="B319">
+        <v>140</v>
+      </c>
+      <c r="C319">
+        <v>39</v>
+      </c>
+      <c r="D319">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B320">
+        <v>135</v>
+      </c>
+      <c r="C320">
+        <v>41</v>
+      </c>
+      <c r="D320">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>44254</v>
+      </c>
+      <c r="B321">
+        <v>132</v>
+      </c>
+      <c r="C321">
+        <v>42</v>
+      </c>
+      <c r="D321">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>44255</v>
+      </c>
+      <c r="B322">
+        <v>132</v>
+      </c>
+      <c r="C322">
+        <v>46</v>
+      </c>
+      <c r="D322">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B323">
+        <v>115</v>
+      </c>
+      <c r="C323">
+        <v>37</v>
+      </c>
+      <c r="D323">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>44257</v>
+      </c>
+      <c r="B324">
+        <v>112</v>
+      </c>
+      <c r="C324">
+        <v>33</v>
+      </c>
+      <c r="D324">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>44258</v>
+      </c>
+      <c r="B325">
+        <v>108</v>
+      </c>
+      <c r="C325">
+        <v>30</v>
+      </c>
+      <c r="D325">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>44259</v>
+      </c>
+      <c r="B326">
+        <v>103</v>
+      </c>
+      <c r="C326">
+        <v>42</v>
+      </c>
+      <c r="D326">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>44260</v>
+      </c>
+      <c r="B327">
+        <v>99</v>
+      </c>
+      <c r="C327">
+        <v>51</v>
+      </c>
+      <c r="D327">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>44261</v>
+      </c>
+      <c r="B328">
+        <v>102</v>
+      </c>
+      <c r="C328">
+        <v>52</v>
+      </c>
+      <c r="D328">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>44262</v>
+      </c>
+      <c r="B329">
+        <v>103</v>
+      </c>
+      <c r="C329">
+        <v>49</v>
+      </c>
+      <c r="D329">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>44263</v>
+      </c>
+      <c r="B330">
+        <v>101</v>
+      </c>
+      <c r="C330">
+        <v>42</v>
+      </c>
+      <c r="D330">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <v>44264</v>
+      </c>
+      <c r="B331">
+        <v>93</v>
+      </c>
+      <c r="C331">
+        <v>50</v>
+      </c>
+      <c r="D331">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>44265</v>
+      </c>
+      <c r="B332">
+        <v>92</v>
+      </c>
+      <c r="C332">
+        <v>36</v>
+      </c>
+      <c r="D332">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <v>44266</v>
+      </c>
+      <c r="B333">
+        <v>87</v>
+      </c>
+      <c r="C333">
+        <v>40</v>
+      </c>
+      <c r="D333">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <v>44267</v>
+      </c>
+      <c r="B334">
+        <v>86</v>
+      </c>
+      <c r="C334">
+        <v>43</v>
+      </c>
+      <c r="D334">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <v>44268</v>
+      </c>
+      <c r="B335">
+        <v>85</v>
+      </c>
+      <c r="C335">
+        <v>41</v>
+      </c>
+      <c r="D335">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
+        <v>44269</v>
+      </c>
+      <c r="B336">
+        <v>86</v>
+      </c>
+      <c r="C336">
+        <v>51</v>
+      </c>
+      <c r="D336">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <v>44270</v>
+      </c>
+      <c r="B337">
+        <v>85</v>
+      </c>
+      <c r="C337">
+        <v>36</v>
+      </c>
+      <c r="D337">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <v>44271</v>
+      </c>
+      <c r="B338">
+        <v>85</v>
+      </c>
+      <c r="C338">
+        <v>47</v>
+      </c>
+      <c r="D338">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
+        <v>44272</v>
+      </c>
+      <c r="B339">
+        <v>82</v>
+      </c>
+      <c r="C339">
+        <v>47</v>
+      </c>
+      <c r="D339">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <v>44273</v>
+      </c>
+      <c r="B340">
+        <v>83</v>
+      </c>
+      <c r="C340">
+        <v>25</v>
+      </c>
+      <c r="D340">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <v>44274</v>
+      </c>
+      <c r="B341">
+        <v>87</v>
+      </c>
+      <c r="C341">
+        <v>31</v>
+      </c>
+      <c r="D341">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <v>44275</v>
+      </c>
+      <c r="B342">
+        <v>83</v>
+      </c>
+      <c r="C342">
+        <v>42</v>
+      </c>
+      <c r="D342">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
+        <v>44276</v>
+      </c>
+      <c r="B343">
+        <v>80</v>
+      </c>
+      <c r="C343">
+        <v>51</v>
+      </c>
+      <c r="D343">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
+        <v>44277</v>
+      </c>
+      <c r="B344">
+        <v>80</v>
+      </c>
+      <c r="C344">
+        <v>34</v>
+      </c>
+      <c r="D344">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
+        <v>44278</v>
+      </c>
+      <c r="B345">
+        <v>76</v>
+      </c>
+      <c r="C345">
+        <v>37</v>
+      </c>
+      <c r="D345">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
+        <v>44279</v>
+      </c>
+      <c r="B346">
+        <v>75</v>
+      </c>
+      <c r="C346">
+        <v>35</v>
+      </c>
+      <c r="D346">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <v>44280</v>
+      </c>
+      <c r="B347">
+        <v>75</v>
+      </c>
+      <c r="C347">
+        <v>34</v>
+      </c>
+      <c r="D347">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <v>44281</v>
+      </c>
+      <c r="B348">
+        <v>66</v>
+      </c>
+      <c r="C348">
+        <v>42</v>
+      </c>
+      <c r="D348">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <v>44282</v>
+      </c>
+      <c r="B349">
+        <v>65</v>
+      </c>
+      <c r="C349">
+        <v>37</v>
+      </c>
+      <c r="D349">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <v>44283</v>
+      </c>
+      <c r="B350">
+        <v>68</v>
+      </c>
+      <c r="C350">
+        <v>45</v>
+      </c>
+      <c r="D350">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <v>44284</v>
+      </c>
+      <c r="B351">
+        <v>70</v>
+      </c>
+      <c r="C351">
+        <v>37</v>
+      </c>
+      <c r="D351">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <v>44285</v>
+      </c>
+      <c r="B352">
+        <v>65</v>
+      </c>
+      <c r="C352">
+        <v>31</v>
+      </c>
+      <c r="D352">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <v>44286</v>
+      </c>
+      <c r="B353">
+        <v>64</v>
+      </c>
+      <c r="C353">
+        <v>42</v>
+      </c>
+      <c r="D353">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B354">
+        <v>61</v>
+      </c>
+      <c r="C354">
+        <v>37</v>
+      </c>
+      <c r="D354">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <v>44288</v>
+      </c>
+      <c r="B355">
+        <v>60</v>
+      </c>
+      <c r="C355">
+        <v>43</v>
+      </c>
+      <c r="D355">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B356">
+        <v>61</v>
+      </c>
+      <c r="C356">
+        <v>50</v>
+      </c>
+      <c r="D356">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B357">
+        <v>56</v>
+      </c>
+      <c r="C357">
+        <v>52</v>
+      </c>
+      <c r="D357">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <v>44291</v>
+      </c>
+      <c r="B358">
+        <v>55</v>
+      </c>
+      <c r="C358">
+        <v>55</v>
+      </c>
+      <c r="D358">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B359">
+        <v>58</v>
+      </c>
+      <c r="C359">
+        <v>37</v>
+      </c>
+      <c r="D359">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5123,18 +5921,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5361,6 +6159,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -5373,14 +6179,6 @@
     <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/david_relihan_intel_com/Documents/Documents/ireland_covid19_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="294" documentId="6_{B2A228BD-9186-44A5-8161-7F57BE69B8BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A1BAFB90-5784-45D8-85AD-143A312E8FC8}"/>
+  <xr:revisionPtr revIDLastSave="295" documentId="6_{B2A228BD-9186-44A5-8161-7F57BE69B8BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{141A6280-5092-492F-8D60-909475954AF8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -877,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="D349" sqref="D349"/>
+    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="C355" sqref="C355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/ireland_hospital_c19_stats.xlsx
+++ b/data/ireland_hospital_c19_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/david_relihan_intel_com/Documents/Documents/ireland_covid19_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="295" documentId="6_{B2A228BD-9186-44A5-8161-7F57BE69B8BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{141A6280-5092-492F-8D60-909475954AF8}"/>
+  <xr:revisionPtr revIDLastSave="354" documentId="6_{B2A228BD-9186-44A5-8161-7F57BE69B8BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9CCD9CEB-70D7-468B-80F0-589A9BA24574}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>date</t>
   </si>
   <si>
     <t>c19_icu_cases</t>
-  </si>
-  <si>
-    <t>available_icu_beds</t>
   </si>
   <si>
     <t>c19_ventilated_cases</t>
@@ -875,20 +872,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D359"/>
+  <dimension ref="A1:C387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="C355" sqref="C355"/>
+    <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
+      <selection activeCell="C388" sqref="C388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.5546875" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -898,11 +895,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43934</v>
       </c>
@@ -910,13 +904,10 @@
         <v>144</v>
       </c>
       <c r="C2">
-        <v>135</v>
-      </c>
-      <c r="D2">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43935</v>
       </c>
@@ -924,13 +915,10 @@
         <v>147</v>
       </c>
       <c r="C3">
-        <v>133</v>
-      </c>
-      <c r="D3">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43936</v>
       </c>
@@ -938,13 +926,10 @@
         <v>142</v>
       </c>
       <c r="C4">
-        <v>127</v>
-      </c>
-      <c r="D4">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43937</v>
       </c>
@@ -952,13 +937,10 @@
         <v>138</v>
       </c>
       <c r="C5">
-        <v>115</v>
-      </c>
-      <c r="D5">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43938</v>
       </c>
@@ -966,13 +948,10 @@
         <v>132</v>
       </c>
       <c r="C6">
-        <v>126</v>
-      </c>
-      <c r="D6">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43939</v>
       </c>
@@ -980,13 +959,10 @@
         <v>140</v>
       </c>
       <c r="C7">
-        <v>132</v>
-      </c>
-      <c r="D7">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43940</v>
       </c>
@@ -994,13 +970,10 @@
         <v>138</v>
       </c>
       <c r="C8">
-        <v>142</v>
-      </c>
-      <c r="D8">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43941</v>
       </c>
@@ -1008,13 +981,10 @@
         <v>138</v>
       </c>
       <c r="C9">
-        <v>140</v>
-      </c>
-      <c r="D9">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43942</v>
       </c>
@@ -1022,13 +992,10 @@
         <v>132</v>
       </c>
       <c r="C10">
-        <v>133</v>
-      </c>
-      <c r="D10">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43943</v>
       </c>
@@ -1036,13 +1003,10 @@
         <v>130</v>
       </c>
       <c r="C11">
-        <v>140</v>
-      </c>
-      <c r="D11">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43944</v>
       </c>
@@ -1050,13 +1014,10 @@
         <v>123</v>
       </c>
       <c r="C12">
-        <v>142</v>
-      </c>
-      <c r="D12">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43945</v>
       </c>
@@ -1064,13 +1025,10 @@
         <v>118</v>
       </c>
       <c r="C13">
-        <v>143</v>
-      </c>
-      <c r="D13">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43946</v>
       </c>
@@ -1078,13 +1036,10 @@
         <v>123</v>
       </c>
       <c r="C14">
-        <v>139</v>
-      </c>
-      <c r="D14">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43947</v>
       </c>
@@ -1092,13 +1047,10 @@
         <v>120</v>
       </c>
       <c r="C15">
-        <v>153</v>
-      </c>
-      <c r="D15">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43948</v>
       </c>
@@ -1106,13 +1058,10 @@
         <v>117</v>
       </c>
       <c r="C16">
-        <v>164</v>
-      </c>
-      <c r="D16">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43949</v>
       </c>
@@ -1120,13 +1069,10 @@
         <v>113</v>
       </c>
       <c r="C17">
-        <v>151</v>
-      </c>
-      <c r="D17">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43950</v>
       </c>
@@ -1134,13 +1080,10 @@
         <v>103</v>
       </c>
       <c r="C18">
-        <v>141</v>
-      </c>
-      <c r="D18">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43951</v>
       </c>
@@ -1148,13 +1091,10 @@
         <v>105</v>
       </c>
       <c r="C19">
-        <v>146</v>
-      </c>
-      <c r="D19">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43952</v>
       </c>
@@ -1162,13 +1102,10 @@
         <v>99</v>
       </c>
       <c r="C20">
-        <v>134</v>
-      </c>
-      <c r="D20">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43953</v>
       </c>
@@ -1176,13 +1113,10 @@
         <v>98</v>
       </c>
       <c r="C21">
-        <v>131</v>
-      </c>
-      <c r="D21">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43954</v>
       </c>
@@ -1190,13 +1124,10 @@
         <v>93</v>
       </c>
       <c r="C22">
-        <v>143</v>
-      </c>
-      <c r="D22">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43955</v>
       </c>
@@ -1204,13 +1135,10 @@
         <v>91</v>
       </c>
       <c r="C23">
-        <v>132</v>
-      </c>
-      <c r="D23">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43956</v>
       </c>
@@ -1218,13 +1146,10 @@
         <v>90</v>
       </c>
       <c r="C24">
-        <v>145</v>
-      </c>
-      <c r="D24">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43957</v>
       </c>
@@ -1232,13 +1157,10 @@
         <v>82</v>
       </c>
       <c r="C25">
-        <v>144</v>
-      </c>
-      <c r="D25">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43958</v>
       </c>
@@ -1246,13 +1168,10 @@
         <v>76</v>
       </c>
       <c r="C26">
-        <v>154</v>
-      </c>
-      <c r="D26">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43959</v>
       </c>
@@ -1260,13 +1179,10 @@
         <v>72</v>
       </c>
       <c r="C27">
-        <v>146</v>
-      </c>
-      <c r="D27">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43960</v>
       </c>
@@ -1274,13 +1190,10 @@
         <v>72</v>
       </c>
       <c r="C28">
-        <v>161</v>
-      </c>
-      <c r="D28">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43961</v>
       </c>
@@ -1288,13 +1201,10 @@
         <v>72</v>
       </c>
       <c r="C29">
-        <v>156</v>
-      </c>
-      <c r="D29">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43962</v>
       </c>
@@ -1302,13 +1212,10 @@
         <v>69</v>
       </c>
       <c r="C30">
-        <v>155</v>
-      </c>
-      <c r="D30">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43963</v>
       </c>
@@ -1316,13 +1223,10 @@
         <v>67</v>
       </c>
       <c r="C31">
-        <v>148</v>
-      </c>
-      <c r="D31">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43964</v>
       </c>
@@ -1330,13 +1234,10 @@
         <v>62</v>
       </c>
       <c r="C32">
-        <v>149</v>
-      </c>
-      <c r="D32">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43965</v>
       </c>
@@ -1344,13 +1245,10 @@
         <v>59</v>
       </c>
       <c r="C33">
-        <v>131</v>
-      </c>
-      <c r="D33">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43966</v>
       </c>
@@ -1358,13 +1256,10 @@
         <v>56</v>
       </c>
       <c r="C34">
-        <v>155</v>
-      </c>
-      <c r="D34">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43967</v>
       </c>
@@ -1372,13 +1267,10 @@
         <v>54</v>
       </c>
       <c r="C35">
-        <v>151</v>
-      </c>
-      <c r="D35">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43968</v>
       </c>
@@ -1386,13 +1278,10 @@
         <v>51</v>
       </c>
       <c r="C36">
-        <v>138</v>
-      </c>
-      <c r="D36">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43969</v>
       </c>
@@ -1400,13 +1289,10 @@
         <v>55</v>
       </c>
       <c r="C37">
-        <v>141</v>
-      </c>
-      <c r="D37">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43970</v>
       </c>
@@ -1414,13 +1300,10 @@
         <v>54</v>
       </c>
       <c r="C38">
-        <v>132</v>
-      </c>
-      <c r="D38">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43971</v>
       </c>
@@ -1428,13 +1311,10 @@
         <v>49</v>
       </c>
       <c r="C39">
-        <v>126</v>
-      </c>
-      <c r="D39">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43972</v>
       </c>
@@ -1442,13 +1322,10 @@
         <v>52</v>
       </c>
       <c r="C40">
-        <v>109</v>
-      </c>
-      <c r="D40">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43973</v>
       </c>
@@ -1456,13 +1333,10 @@
         <v>49</v>
       </c>
       <c r="C41">
-        <v>107</v>
-      </c>
-      <c r="D41">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43974</v>
       </c>
@@ -1470,13 +1344,10 @@
         <v>51</v>
       </c>
       <c r="C42">
-        <v>114</v>
-      </c>
-      <c r="D42">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43975</v>
       </c>
@@ -1484,13 +1355,10 @@
         <v>49</v>
       </c>
       <c r="C43">
-        <v>126</v>
-      </c>
-      <c r="D43">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43976</v>
       </c>
@@ -1498,13 +1366,10 @@
         <v>48</v>
       </c>
       <c r="C44">
-        <v>116</v>
-      </c>
-      <c r="D44">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43977</v>
       </c>
@@ -1512,13 +1377,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>108</v>
-      </c>
-      <c r="D45">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43978</v>
       </c>
@@ -1526,13 +1388,10 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>116</v>
-      </c>
-      <c r="D46">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43979</v>
       </c>
@@ -1540,13 +1399,10 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>113</v>
-      </c>
-      <c r="D47">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43980</v>
       </c>
@@ -1554,13 +1410,10 @@
         <v>42</v>
       </c>
       <c r="C48">
-        <v>113</v>
-      </c>
-      <c r="D48">
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43981</v>
       </c>
@@ -1568,13 +1421,10 @@
         <v>36</v>
       </c>
       <c r="C49">
-        <v>118</v>
-      </c>
-      <c r="D49">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43982</v>
       </c>
@@ -1582,13 +1432,10 @@
         <v>36</v>
       </c>
       <c r="C50">
-        <v>124</v>
-      </c>
-      <c r="D50">
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43983</v>
       </c>
@@ -1596,13 +1443,10 @@
         <v>37</v>
       </c>
       <c r="C51">
-        <v>120</v>
-      </c>
-      <c r="D51">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43984</v>
       </c>
@@ -1610,13 +1454,10 @@
         <v>36</v>
       </c>
       <c r="C52">
-        <v>117</v>
-      </c>
-      <c r="D52">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43985</v>
       </c>
@@ -1624,13 +1465,10 @@
         <v>37</v>
       </c>
       <c r="C53">
-        <v>103</v>
-      </c>
-      <c r="D53">
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43986</v>
       </c>
@@ -1638,13 +1476,10 @@
         <v>36</v>
       </c>
       <c r="C54">
-        <v>96</v>
-      </c>
-      <c r="D54">
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43987</v>
       </c>
@@ -1652,13 +1487,10 @@
         <v>37</v>
       </c>
       <c r="C55">
-        <v>103</v>
-      </c>
-      <c r="D55">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43988</v>
       </c>
@@ -1666,13 +1498,10 @@
         <v>36</v>
       </c>
       <c r="C56">
-        <v>114</v>
-      </c>
-      <c r="D56">
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43989</v>
       </c>
@@ -1680,13 +1509,10 @@
         <v>34</v>
       </c>
       <c r="C57">
-        <v>112</v>
-      </c>
-      <c r="D57">
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43990</v>
       </c>
@@ -1694,13 +1520,10 @@
         <v>34</v>
       </c>
       <c r="C58">
-        <v>119</v>
-      </c>
-      <c r="D58">
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43991</v>
       </c>
@@ -1708,13 +1531,10 @@
         <v>35</v>
       </c>
       <c r="C59">
-        <v>114</v>
-      </c>
-      <c r="D59">
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43992</v>
       </c>
@@ -1722,13 +1542,10 @@
         <v>29</v>
       </c>
       <c r="C60">
-        <v>115</v>
-      </c>
-      <c r="D60">
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43993</v>
       </c>
@@ -1736,13 +1553,10 @@
         <v>27</v>
       </c>
       <c r="C61">
-        <v>91</v>
-      </c>
-      <c r="D61">
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43994</v>
       </c>
@@ -1750,13 +1564,10 @@
         <v>27</v>
       </c>
       <c r="C62">
-        <v>88</v>
-      </c>
-      <c r="D62">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43995</v>
       </c>
@@ -1764,13 +1575,10 @@
         <v>27</v>
       </c>
       <c r="C63">
-        <v>88</v>
-      </c>
-      <c r="D63">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43996</v>
       </c>
@@ -1778,13 +1586,10 @@
         <v>27</v>
       </c>
       <c r="C64">
-        <v>116</v>
-      </c>
-      <c r="D64">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43997</v>
       </c>
@@ -1792,13 +1597,10 @@
         <v>24</v>
       </c>
       <c r="C65">
-        <v>116</v>
-      </c>
-      <c r="D65">
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43998</v>
       </c>
@@ -1806,13 +1608,10 @@
         <v>20</v>
       </c>
       <c r="C66">
-        <v>103</v>
-      </c>
-      <c r="D66">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43999</v>
       </c>
@@ -1820,13 +1619,10 @@
         <v>21</v>
       </c>
       <c r="C67">
-        <v>92</v>
-      </c>
-      <c r="D67">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44000</v>
       </c>
@@ -1834,13 +1630,10 @@
         <v>21</v>
       </c>
       <c r="C68">
-        <v>94</v>
-      </c>
-      <c r="D68">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44001</v>
       </c>
@@ -1848,13 +1641,10 @@
         <v>16</v>
       </c>
       <c r="C69">
-        <v>98</v>
-      </c>
-      <c r="D69">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44002</v>
       </c>
@@ -1862,13 +1652,10 @@
         <v>17</v>
       </c>
       <c r="C70">
-        <v>93</v>
-      </c>
-      <c r="D70">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44003</v>
       </c>
@@ -1876,13 +1663,10 @@
         <v>16</v>
       </c>
       <c r="C71">
-        <v>106</v>
-      </c>
-      <c r="D71">
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44004</v>
       </c>
@@ -1890,13 +1674,10 @@
         <v>16</v>
       </c>
       <c r="C72">
-        <v>102</v>
-      </c>
-      <c r="D72">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44005</v>
       </c>
@@ -1904,13 +1685,10 @@
         <v>11</v>
       </c>
       <c r="C73">
-        <v>95</v>
-      </c>
-      <c r="D73">
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44006</v>
       </c>
@@ -1918,13 +1696,10 @@
         <v>9</v>
       </c>
       <c r="C74">
-        <v>82</v>
-      </c>
-      <c r="D74">
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44007</v>
       </c>
@@ -1932,13 +1707,10 @@
         <v>12</v>
       </c>
       <c r="C75">
-        <v>73</v>
-      </c>
-      <c r="D75">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44008</v>
       </c>
@@ -1946,13 +1718,10 @@
         <v>12</v>
       </c>
       <c r="C76">
-        <v>74</v>
-      </c>
-      <c r="D76">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44009</v>
       </c>
@@ -1960,13 +1729,10 @@
         <v>11</v>
       </c>
       <c r="C77">
-        <v>88</v>
-      </c>
-      <c r="D77">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44010</v>
       </c>
@@ -1974,13 +1740,10 @@
         <v>11</v>
       </c>
       <c r="C78">
-        <v>87</v>
-      </c>
-      <c r="D78">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44011</v>
       </c>
@@ -1988,13 +1751,10 @@
         <v>12</v>
       </c>
       <c r="C79">
-        <v>80</v>
-      </c>
-      <c r="D79">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44012</v>
       </c>
@@ -2002,13 +1762,10 @@
         <v>13</v>
       </c>
       <c r="C80">
-        <v>80</v>
-      </c>
-      <c r="D80">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44013</v>
       </c>
@@ -2016,13 +1773,10 @@
         <v>12</v>
       </c>
       <c r="C81">
-        <v>50</v>
-      </c>
-      <c r="D81">
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44014</v>
       </c>
@@ -2030,13 +1784,10 @@
         <v>10</v>
       </c>
       <c r="C82">
-        <v>46</v>
-      </c>
-      <c r="D82">
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44015</v>
       </c>
@@ -2044,13 +1795,10 @@
         <v>10</v>
       </c>
       <c r="C83">
-        <v>56</v>
-      </c>
-      <c r="D83">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44016</v>
       </c>
@@ -2058,13 +1806,10 @@
         <v>11</v>
       </c>
       <c r="C84">
-        <v>61</v>
-      </c>
-      <c r="D84">
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44017</v>
       </c>
@@ -2072,13 +1817,10 @@
         <v>10</v>
       </c>
       <c r="C85">
-        <v>61</v>
-      </c>
-      <c r="D85">
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44018</v>
       </c>
@@ -2086,13 +1828,10 @@
         <v>10</v>
       </c>
       <c r="C86">
-        <v>58</v>
-      </c>
-      <c r="D86">
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44019</v>
       </c>
@@ -2100,13 +1839,10 @@
         <v>9</v>
       </c>
       <c r="C87">
-        <v>51</v>
-      </c>
-      <c r="D87">
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44020</v>
       </c>
@@ -2114,13 +1850,10 @@
         <v>9</v>
       </c>
       <c r="C88">
-        <v>38</v>
-      </c>
-      <c r="D88">
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44021</v>
       </c>
@@ -2128,13 +1861,10 @@
         <v>9</v>
       </c>
       <c r="C89">
-        <v>39</v>
-      </c>
-      <c r="D89">
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44022</v>
       </c>
@@ -2142,13 +1872,10 @@
         <v>9</v>
       </c>
       <c r="C90">
-        <v>45</v>
-      </c>
-      <c r="D90">
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44023</v>
       </c>
@@ -2156,13 +1883,10 @@
         <v>10</v>
       </c>
       <c r="C91">
-        <v>53</v>
-      </c>
-      <c r="D91">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44024</v>
       </c>
@@ -2170,13 +1894,10 @@
         <v>11</v>
       </c>
       <c r="C92">
-        <v>42</v>
-      </c>
-      <c r="D92">
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44025</v>
       </c>
@@ -2184,13 +1905,10 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <v>47</v>
-      </c>
-      <c r="D93">
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44026</v>
       </c>
@@ -2198,13 +1916,10 @@
         <v>10</v>
       </c>
       <c r="C94">
-        <v>44</v>
-      </c>
-      <c r="D94">
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44027</v>
       </c>
@@ -2212,13 +1927,10 @@
         <v>8</v>
       </c>
       <c r="C95">
-        <v>53</v>
-      </c>
-      <c r="D95">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44028</v>
       </c>
@@ -2226,13 +1938,10 @@
         <v>8</v>
       </c>
       <c r="C96">
-        <v>50</v>
-      </c>
-      <c r="D96">
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44029</v>
       </c>
@@ -2240,13 +1949,10 @@
         <v>8</v>
       </c>
       <c r="C97">
-        <v>58</v>
-      </c>
-      <c r="D97">
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44030</v>
       </c>
@@ -2254,13 +1960,10 @@
         <v>8</v>
       </c>
       <c r="C98">
-        <v>56</v>
-      </c>
-      <c r="D98">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44031</v>
       </c>
@@ -2268,13 +1971,10 @@
         <v>9</v>
       </c>
       <c r="C99">
-        <v>55</v>
-      </c>
-      <c r="D99">
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44032</v>
       </c>
@@ -2282,13 +1982,10 @@
         <v>8</v>
       </c>
       <c r="C100">
-        <v>43</v>
-      </c>
-      <c r="D100">
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44033</v>
       </c>
@@ -2296,13 +1993,10 @@
         <v>7</v>
       </c>
       <c r="C101">
-        <v>46</v>
-      </c>
-      <c r="D101">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44034</v>
       </c>
@@ -2310,13 +2004,10 @@
         <v>6</v>
       </c>
       <c r="C102">
-        <v>49</v>
-      </c>
-      <c r="D102">
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44035</v>
       </c>
@@ -2324,13 +2015,10 @@
         <v>6</v>
       </c>
       <c r="C103">
-        <v>42</v>
-      </c>
-      <c r="D103">
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44036</v>
       </c>
@@ -2338,13 +2026,10 @@
         <v>5</v>
       </c>
       <c r="C104">
-        <v>47</v>
-      </c>
-      <c r="D104">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44037</v>
       </c>
@@ -2352,13 +2037,10 @@
         <v>5</v>
       </c>
       <c r="C105">
-        <v>57</v>
-      </c>
-      <c r="D105">
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44038</v>
       </c>
@@ -2366,13 +2048,10 @@
         <v>5</v>
       </c>
       <c r="C106">
-        <v>49</v>
-      </c>
-      <c r="D106">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44039</v>
       </c>
@@ -2380,13 +2059,10 @@
         <v>6</v>
       </c>
       <c r="C107">
-        <v>44</v>
-      </c>
-      <c r="D107">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44040</v>
       </c>
@@ -2394,13 +2070,10 @@
         <v>6</v>
       </c>
       <c r="C108">
-        <v>45</v>
-      </c>
-      <c r="D108">
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44041</v>
       </c>
@@ -2408,13 +2081,10 @@
         <v>4</v>
       </c>
       <c r="C109">
-        <v>43</v>
-      </c>
-      <c r="D109">
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44042</v>
       </c>
@@ -2422,13 +2092,10 @@
         <v>4</v>
       </c>
       <c r="C110">
-        <v>48</v>
-      </c>
-      <c r="D110">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44043</v>
       </c>
@@ -2436,13 +2103,10 @@
         <v>4</v>
       </c>
       <c r="C111">
-        <v>47</v>
-      </c>
-      <c r="D111">
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44044</v>
       </c>
@@ -2450,13 +2114,10 @@
         <v>4</v>
       </c>
       <c r="C112">
-        <v>52</v>
-      </c>
-      <c r="D112">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44045</v>
       </c>
@@ -2464,13 +2125,10 @@
         <v>4</v>
       </c>
       <c r="C113">
-        <v>46</v>
-      </c>
-      <c r="D113">
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44046</v>
       </c>
@@ -2478,13 +2136,10 @@
         <v>5</v>
       </c>
       <c r="C114">
-        <v>47</v>
-      </c>
-      <c r="D114">
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44047</v>
       </c>
@@ -2492,13 +2147,10 @@
         <v>5</v>
       </c>
       <c r="C115">
-        <v>45</v>
-      </c>
-      <c r="D115">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44048</v>
       </c>
@@ -2506,13 +2158,10 @@
         <v>6</v>
       </c>
       <c r="C116">
-        <v>39</v>
-      </c>
-      <c r="D116">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44049</v>
       </c>
@@ -2520,13 +2169,10 @@
         <v>5</v>
       </c>
       <c r="C117">
-        <v>34</v>
-      </c>
-      <c r="D117">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44050</v>
       </c>
@@ -2534,13 +2180,10 @@
         <v>5</v>
       </c>
       <c r="C118">
-        <v>35</v>
-      </c>
-      <c r="D118">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44051</v>
       </c>
@@ -2548,13 +2191,10 @@
         <v>6</v>
       </c>
       <c r="C119">
-        <v>47</v>
-      </c>
-      <c r="D119">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44052</v>
       </c>
@@ -2562,13 +2202,10 @@
         <v>6</v>
       </c>
       <c r="C120">
-        <v>43</v>
-      </c>
-      <c r="D120">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44053</v>
       </c>
@@ -2576,13 +2213,10 @@
         <v>7</v>
       </c>
       <c r="C121">
-        <v>34</v>
-      </c>
-      <c r="D121">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44054</v>
       </c>
@@ -2590,13 +2224,10 @@
         <v>5</v>
       </c>
       <c r="C122">
-        <v>35</v>
-      </c>
-      <c r="D122">
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44055</v>
       </c>
@@ -2604,13 +2235,10 @@
         <v>6</v>
       </c>
       <c r="C123">
-        <v>39</v>
-      </c>
-      <c r="D123">
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44056</v>
       </c>
@@ -2618,13 +2246,10 @@
         <v>6</v>
       </c>
       <c r="C124">
-        <v>36</v>
-      </c>
-      <c r="D124">
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44057</v>
       </c>
@@ -2632,13 +2257,10 @@
         <v>8</v>
       </c>
       <c r="C125">
-        <v>33</v>
-      </c>
-      <c r="D125">
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44058</v>
       </c>
@@ -2646,13 +2268,10 @@
         <v>8</v>
       </c>
       <c r="C126">
-        <v>40</v>
-      </c>
-      <c r="D126">
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44059</v>
       </c>
@@ -2660,13 +2279,10 @@
         <v>8</v>
       </c>
       <c r="C127">
-        <v>42</v>
-      </c>
-      <c r="D127">
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44060</v>
       </c>
@@ -2674,13 +2290,10 @@
         <v>8</v>
       </c>
       <c r="C128">
-        <v>33</v>
-      </c>
-      <c r="D128">
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44061</v>
       </c>
@@ -2688,13 +2301,10 @@
         <v>7</v>
       </c>
       <c r="C129">
-        <v>31</v>
-      </c>
-      <c r="D129">
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44062</v>
       </c>
@@ -2702,13 +2312,10 @@
         <v>6</v>
       </c>
       <c r="C130">
-        <v>31</v>
-      </c>
-      <c r="D130">
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44063</v>
       </c>
@@ -2716,13 +2323,10 @@
         <v>6</v>
       </c>
       <c r="C131">
-        <v>39</v>
-      </c>
-      <c r="D131">
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44064</v>
       </c>
@@ -2730,13 +2334,10 @@
         <v>6</v>
       </c>
       <c r="C132">
-        <v>46</v>
-      </c>
-      <c r="D132">
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44065</v>
       </c>
@@ -2744,13 +2345,10 @@
         <v>6</v>
       </c>
       <c r="C133">
-        <v>52</v>
-      </c>
-      <c r="D133">
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44066</v>
       </c>
@@ -2758,13 +2356,10 @@
         <v>6</v>
       </c>
       <c r="C134">
-        <v>50</v>
-      </c>
-      <c r="D134">
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>44067</v>
       </c>
@@ -2772,13 +2367,10 @@
         <v>5</v>
       </c>
       <c r="C135">
-        <v>31</v>
-      </c>
-      <c r="D135">
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44068</v>
       </c>
@@ -2786,13 +2378,10 @@
         <v>4</v>
       </c>
       <c r="C136">
-        <v>31</v>
-      </c>
-      <c r="D136">
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>44069</v>
       </c>
@@ -2800,13 +2389,10 @@
         <v>4</v>
       </c>
       <c r="C137">
-        <v>35</v>
-      </c>
-      <c r="D137">
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>44070</v>
       </c>
@@ -2814,13 +2400,10 @@
         <v>5</v>
       </c>
       <c r="C138">
-        <v>40</v>
-      </c>
-      <c r="D138">
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44071</v>
       </c>
@@ -2828,13 +2411,10 @@
         <v>5</v>
       </c>
       <c r="C139">
-        <v>41</v>
-      </c>
-      <c r="D139">
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44072</v>
       </c>
@@ -2842,13 +2422,10 @@
         <v>5</v>
       </c>
       <c r="C140">
-        <v>42</v>
-      </c>
-      <c r="D140">
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>44073</v>
       </c>
@@ -2856,13 +2433,10 @@
         <v>5</v>
       </c>
       <c r="C141">
-        <v>47</v>
-      </c>
-      <c r="D141">
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>44074</v>
       </c>
@@ -2870,13 +2444,10 @@
         <v>6</v>
       </c>
       <c r="C142">
-        <v>41</v>
-      </c>
-      <c r="D142">
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44075</v>
       </c>
@@ -2884,13 +2455,10 @@
         <v>6</v>
       </c>
       <c r="C143">
-        <v>41</v>
-      </c>
-      <c r="D143">
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44076</v>
       </c>
@@ -2898,13 +2466,10 @@
         <v>6</v>
       </c>
       <c r="C144">
-        <v>39</v>
-      </c>
-      <c r="D144">
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44077</v>
       </c>
@@ -2912,13 +2477,10 @@
         <v>7</v>
       </c>
       <c r="C145">
-        <v>40</v>
-      </c>
-      <c r="D145">
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44078</v>
       </c>
@@ -2926,13 +2488,10 @@
         <v>7</v>
       </c>
       <c r="C146">
-        <v>49</v>
-      </c>
-      <c r="D146">
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44079</v>
       </c>
@@ -2940,13 +2499,10 @@
         <v>7</v>
       </c>
       <c r="C147">
-        <v>46</v>
-      </c>
-      <c r="D147">
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44080</v>
       </c>
@@ -2954,13 +2510,10 @@
         <v>6</v>
       </c>
       <c r="C148">
-        <v>48</v>
-      </c>
-      <c r="D148">
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44081</v>
       </c>
@@ -2968,13 +2521,10 @@
         <v>6</v>
       </c>
       <c r="C149">
-        <v>47</v>
-      </c>
-      <c r="D149">
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44082</v>
       </c>
@@ -2982,13 +2532,10 @@
         <v>6</v>
       </c>
       <c r="C150">
-        <v>44</v>
-      </c>
-      <c r="D150">
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44083</v>
       </c>
@@ -2996,13 +2543,10 @@
         <v>6</v>
       </c>
       <c r="C151">
-        <v>39</v>
-      </c>
-      <c r="D151">
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44084</v>
       </c>
@@ -3010,13 +2554,10 @@
         <v>7</v>
       </c>
       <c r="C152">
-        <v>38</v>
-      </c>
-      <c r="D152">
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44085</v>
       </c>
@@ -3024,13 +2565,10 @@
         <v>7</v>
       </c>
       <c r="C153">
-        <v>43</v>
-      </c>
-      <c r="D153">
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44086</v>
       </c>
@@ -3038,13 +2576,10 @@
         <v>9</v>
       </c>
       <c r="C154">
-        <v>63</v>
-      </c>
-      <c r="D154">
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44087</v>
       </c>
@@ -3052,13 +2587,10 @@
         <v>10</v>
       </c>
       <c r="C155">
-        <v>66</v>
-      </c>
-      <c r="D155">
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44088</v>
       </c>
@@ -3066,13 +2598,10 @@
         <v>11</v>
       </c>
       <c r="C156">
-        <v>68</v>
-      </c>
-      <c r="D156">
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44089</v>
       </c>
@@ -3080,13 +2609,10 @@
         <v>13</v>
       </c>
       <c r="C157">
-        <v>62</v>
-      </c>
-      <c r="D157">
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>44090</v>
       </c>
@@ -3094,13 +2620,10 @@
         <v>14</v>
       </c>
       <c r="C158">
-        <v>52</v>
-      </c>
-      <c r="D158">
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>44091</v>
       </c>
@@ -3108,13 +2631,10 @@
         <v>14</v>
       </c>
       <c r="C159">
-        <v>48</v>
-      </c>
-      <c r="D159">
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44092</v>
       </c>
@@ -3122,13 +2642,10 @@
         <v>15</v>
       </c>
       <c r="C160">
-        <v>44</v>
-      </c>
-      <c r="D160">
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>44093</v>
       </c>
@@ -3136,13 +2653,10 @@
         <v>16</v>
       </c>
       <c r="C161">
-        <v>55</v>
-      </c>
-      <c r="D161">
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>44094</v>
       </c>
@@ -3150,13 +2664,10 @@
         <v>16</v>
       </c>
       <c r="C162">
-        <v>53</v>
-      </c>
-      <c r="D162">
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>44095</v>
       </c>
@@ -3164,13 +2675,10 @@
         <v>17</v>
       </c>
       <c r="C163">
-        <v>47</v>
-      </c>
-      <c r="D163">
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>44096</v>
       </c>
@@ -3178,13 +2686,10 @@
         <v>16</v>
       </c>
       <c r="C164">
-        <v>47</v>
-      </c>
-      <c r="D164">
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>44097</v>
       </c>
@@ -3192,13 +2697,10 @@
         <v>17</v>
       </c>
       <c r="C165">
-        <v>51</v>
-      </c>
-      <c r="D165">
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>44098</v>
       </c>
@@ -3206,13 +2708,10 @@
         <v>16</v>
       </c>
       <c r="C166">
-        <v>50</v>
-      </c>
-      <c r="D166">
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>44099</v>
       </c>
@@ -3220,13 +2719,10 @@
         <v>17</v>
       </c>
       <c r="C167">
-        <v>52</v>
-      </c>
-      <c r="D167">
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>44100</v>
       </c>
@@ -3234,13 +2730,10 @@
         <v>18</v>
       </c>
       <c r="C168">
-        <v>41</v>
-      </c>
-      <c r="D168">
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>44101</v>
       </c>
@@ -3248,13 +2741,10 @@
         <v>17</v>
       </c>
       <c r="C169">
-        <v>51</v>
-      </c>
-      <c r="D169">
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>44102</v>
       </c>
@@ -3262,13 +2752,10 @@
         <v>17</v>
       </c>
       <c r="C170">
-        <v>36</v>
-      </c>
-      <c r="D170">
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>44103</v>
       </c>
@@ -3276,13 +2763,10 @@
         <v>18</v>
       </c>
       <c r="C171">
-        <v>37</v>
-      </c>
-      <c r="D171">
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>44104</v>
       </c>
@@ -3290,13 +2774,10 @@
         <v>22</v>
       </c>
       <c r="C172">
-        <v>43</v>
-      </c>
-      <c r="D172">
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>44105</v>
       </c>
@@ -3304,13 +2785,10 @@
         <v>20</v>
       </c>
       <c r="C173">
-        <v>45</v>
-      </c>
-      <c r="D173">
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>44106</v>
       </c>
@@ -3318,13 +2796,10 @@
         <v>21</v>
       </c>
       <c r="C174">
-        <v>42</v>
-      </c>
-      <c r="D174">
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>44107</v>
       </c>
@@ -3332,13 +2807,10 @@
         <v>20</v>
       </c>
       <c r="C175">
-        <v>45</v>
-      </c>
-      <c r="D175">
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>44108</v>
       </c>
@@ -3346,13 +2818,10 @@
         <v>21</v>
       </c>
       <c r="C176">
-        <v>46</v>
-      </c>
-      <c r="D176">
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>44109</v>
       </c>
@@ -3360,13 +2829,10 @@
         <v>23</v>
       </c>
       <c r="C177">
-        <v>41</v>
-      </c>
-      <c r="D177">
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>44110</v>
       </c>
@@ -3374,13 +2840,10 @@
         <v>24</v>
       </c>
       <c r="C178">
-        <v>33</v>
-      </c>
-      <c r="D178">
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>44111</v>
       </c>
@@ -3388,13 +2851,10 @@
         <v>27</v>
       </c>
       <c r="C179">
-        <v>33</v>
-      </c>
-      <c r="D179">
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44112</v>
       </c>
@@ -3402,13 +2862,10 @@
         <v>27</v>
       </c>
       <c r="C180">
-        <v>41</v>
-      </c>
-      <c r="D180">
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>44113</v>
       </c>
@@ -3416,13 +2873,10 @@
         <v>31</v>
       </c>
       <c r="C181">
-        <v>43</v>
-      </c>
-      <c r="D181">
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44114</v>
       </c>
@@ -3430,13 +2884,10 @@
         <v>30</v>
       </c>
       <c r="C182">
-        <v>42</v>
-      </c>
-      <c r="D182">
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44115</v>
       </c>
@@ -3444,13 +2895,10 @@
         <v>30</v>
       </c>
       <c r="C183">
-        <v>43</v>
-      </c>
-      <c r="D183">
         <v>19</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>44116</v>
       </c>
@@ -3458,13 +2906,10 @@
         <v>32</v>
       </c>
       <c r="C184">
-        <v>33</v>
-      </c>
-      <c r="D184">
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44117</v>
       </c>
@@ -3472,13 +2917,10 @@
         <v>31</v>
       </c>
       <c r="C185">
-        <v>32</v>
-      </c>
-      <c r="D185">
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>44118</v>
       </c>
@@ -3486,13 +2928,10 @@
         <v>30</v>
       </c>
       <c r="C186">
-        <v>44</v>
-      </c>
-      <c r="D186">
         <v>21</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>44119</v>
       </c>
@@ -3500,13 +2939,10 @@
         <v>29</v>
       </c>
       <c r="C187">
-        <v>41</v>
-      </c>
-      <c r="D187">
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44120</v>
       </c>
@@ -3514,13 +2950,10 @@
         <v>30</v>
       </c>
       <c r="C188">
-        <v>37</v>
-      </c>
-      <c r="D188">
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>44121</v>
       </c>
@@ -3528,13 +2961,10 @@
         <v>30</v>
       </c>
       <c r="C189">
-        <v>44</v>
-      </c>
-      <c r="D189">
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>44122</v>
       </c>
@@ -3542,13 +2972,10 @@
         <v>31</v>
       </c>
       <c r="C190">
-        <v>60</v>
-      </c>
-      <c r="D190">
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>44123</v>
       </c>
@@ -3556,13 +2983,10 @@
         <v>32</v>
       </c>
       <c r="C191">
-        <v>39</v>
-      </c>
-      <c r="D191">
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>44124</v>
       </c>
@@ -3570,13 +2994,10 @@
         <v>34</v>
       </c>
       <c r="C192">
-        <v>51</v>
-      </c>
-      <c r="D192">
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>44125</v>
       </c>
@@ -3584,13 +3005,10 @@
         <v>35</v>
       </c>
       <c r="C193">
-        <v>45</v>
-      </c>
-      <c r="D193">
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>44126</v>
       </c>
@@ -3598,13 +3016,10 @@
         <v>37</v>
       </c>
       <c r="C194">
-        <v>47</v>
-      </c>
-      <c r="D194">
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>44127</v>
       </c>
@@ -3612,13 +3027,10 @@
         <v>38</v>
       </c>
       <c r="C195">
-        <v>42</v>
-      </c>
-      <c r="D195">
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>44129</v>
       </c>
@@ -3626,13 +3038,10 @@
         <v>39</v>
       </c>
       <c r="C196">
-        <v>50</v>
-      </c>
-      <c r="D196">
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>44130</v>
       </c>
@@ -3640,13 +3049,10 @@
         <v>38</v>
       </c>
       <c r="C197">
-        <v>49</v>
-      </c>
-      <c r="D197">
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>44131</v>
       </c>
@@ -3654,13 +3060,10 @@
         <v>38</v>
       </c>
       <c r="C198">
-        <v>44</v>
-      </c>
-      <c r="D198">
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>44132</v>
       </c>
@@ -3668,13 +3071,10 @@
         <v>40</v>
       </c>
       <c r="C199">
-        <v>41</v>
-      </c>
-      <c r="D199">
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>44133</v>
       </c>
@@ -3682,13 +3082,10 @@
         <v>42</v>
       </c>
       <c r="C200">
-        <v>43</v>
-      </c>
-      <c r="D200">
         <v>26</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>44134</v>
       </c>
@@ -3696,13 +3093,10 @@
         <v>41</v>
       </c>
       <c r="C201">
-        <v>49</v>
-      </c>
-      <c r="D201">
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>44135</v>
       </c>
@@ -3710,13 +3104,10 @@
         <v>43</v>
       </c>
       <c r="C202">
-        <v>52</v>
-      </c>
-      <c r="D202">
         <v>25</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>44136</v>
       </c>
@@ -3724,13 +3115,10 @@
         <v>44</v>
       </c>
       <c r="C203">
-        <v>47</v>
-      </c>
-      <c r="D203">
         <v>25</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>44137</v>
       </c>
@@ -3738,13 +3126,10 @@
         <v>44</v>
       </c>
       <c r="C204">
-        <v>49</v>
-      </c>
-      <c r="D204">
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>44138</v>
       </c>
@@ -3752,13 +3137,10 @@
         <v>43</v>
       </c>
       <c r="C205">
-        <v>42</v>
-      </c>
-      <c r="D205">
         <v>24</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>44139</v>
       </c>
@@ -3766,13 +3148,10 @@
         <v>40</v>
       </c>
       <c r="C206">
-        <v>51</v>
-      </c>
-      <c r="D206">
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>44140</v>
       </c>
@@ -3780,13 +3159,10 @@
         <v>38</v>
       </c>
       <c r="C207">
-        <v>50</v>
-      </c>
-      <c r="D207">
         <v>23</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>44141</v>
       </c>
@@ -3794,13 +3170,10 @@
         <v>37</v>
       </c>
       <c r="C208">
-        <v>47</v>
-      </c>
-      <c r="D208">
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>44142</v>
       </c>
@@ -3808,13 +3181,10 @@
         <v>39</v>
       </c>
       <c r="C209">
-        <v>48</v>
-      </c>
-      <c r="D209">
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>44143</v>
       </c>
@@ -3822,13 +3192,10 @@
         <v>39</v>
       </c>
       <c r="C210">
-        <v>54</v>
-      </c>
-      <c r="D210">
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>44144</v>
       </c>
@@ -3836,13 +3203,10 @@
         <v>40</v>
       </c>
       <c r="C211">
-        <v>40</v>
-      </c>
-      <c r="D211">
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>44145</v>
       </c>
@@ -3850,13 +3214,10 @@
         <v>39</v>
       </c>
       <c r="C212">
-        <v>43</v>
-      </c>
-      <c r="D212">
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>44146</v>
       </c>
@@ -3864,13 +3225,10 @@
         <v>39</v>
       </c>
       <c r="C213">
-        <v>34</v>
-      </c>
-      <c r="D213">
         <v>24</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>44147</v>
       </c>
@@ -3878,13 +3236,10 @@
         <v>38</v>
       </c>
       <c r="C214">
-        <v>47</v>
-      </c>
-      <c r="D214">
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>44148</v>
       </c>
@@ -3892,13 +3247,10 @@
         <v>33</v>
       </c>
       <c r="C215">
-        <v>44</v>
-      </c>
-      <c r="D215">
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44149</v>
       </c>
@@ -3906,13 +3258,10 @@
         <v>33</v>
       </c>
       <c r="C216">
-        <v>48</v>
-      </c>
-      <c r="D216">
         <v>23</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>44150</v>
       </c>
@@ -3920,13 +3269,10 @@
         <v>30</v>
       </c>
       <c r="C217">
-        <v>52</v>
-      </c>
-      <c r="D217">
         <v>21</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>44151</v>
       </c>
@@ -3934,13 +3280,10 @@
         <v>34</v>
       </c>
       <c r="C218">
-        <v>45</v>
-      </c>
-      <c r="D218">
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44152</v>
       </c>
@@ -3948,13 +3291,10 @@
         <v>34</v>
       </c>
       <c r="C219">
-        <v>42</v>
-      </c>
-      <c r="D219">
         <v>19</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>44153</v>
       </c>
@@ -3962,13 +3302,10 @@
         <v>33</v>
       </c>
       <c r="C220">
-        <v>47</v>
-      </c>
-      <c r="D220">
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44154</v>
       </c>
@@ -3976,13 +3313,10 @@
         <v>32</v>
       </c>
       <c r="C221">
-        <v>40</v>
-      </c>
-      <c r="D221">
         <v>21</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44155</v>
       </c>
@@ -3990,13 +3324,10 @@
         <v>32</v>
       </c>
       <c r="C222">
-        <v>45</v>
-      </c>
-      <c r="D222">
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44156</v>
       </c>
@@ -4004,13 +3335,10 @@
         <v>32</v>
       </c>
       <c r="C223">
-        <v>66</v>
-      </c>
-      <c r="D223">
         <v>18</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44157</v>
       </c>
@@ -4018,13 +3346,10 @@
         <v>31</v>
       </c>
       <c r="C224">
-        <v>74</v>
-      </c>
-      <c r="D224">
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>44158</v>
       </c>
@@ -4032,13 +3357,10 @@
         <v>33</v>
       </c>
       <c r="C225">
-        <v>48</v>
-      </c>
-      <c r="D225">
         <v>19</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44159</v>
       </c>
@@ -4046,13 +3368,10 @@
         <v>37</v>
       </c>
       <c r="C226">
-        <v>50</v>
-      </c>
-      <c r="D226">
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>44160</v>
       </c>
@@ -4060,13 +3379,10 @@
         <v>36</v>
       </c>
       <c r="C227">
-        <v>35</v>
-      </c>
-      <c r="D227">
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>44161</v>
       </c>
@@ -4074,13 +3390,10 @@
         <v>36</v>
       </c>
       <c r="C228">
-        <v>33</v>
-      </c>
-      <c r="D228">
         <v>21</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44162</v>
       </c>
@@ -4088,13 +3401,10 @@
         <v>34</v>
       </c>
       <c r="C229">
-        <v>38</v>
-      </c>
-      <c r="D229">
         <v>19</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>44163</v>
       </c>
@@ -4102,13 +3412,10 @@
         <v>31</v>
       </c>
       <c r="C230">
-        <v>51</v>
-      </c>
-      <c r="D230">
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>44164</v>
       </c>
@@ -4116,13 +3423,10 @@
         <v>30</v>
       </c>
       <c r="C231">
-        <v>62</v>
-      </c>
-      <c r="D231">
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44165</v>
       </c>
@@ -4130,13 +3434,10 @@
         <v>30</v>
       </c>
       <c r="C232">
-        <v>52</v>
-      </c>
-      <c r="D232">
         <v>18</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>44166</v>
       </c>
@@ -4144,13 +3445,10 @@
         <v>31</v>
       </c>
       <c r="C233">
-        <v>53</v>
-      </c>
-      <c r="D233">
         <v>20</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>44167</v>
       </c>
@@ -4158,13 +3456,10 @@
         <v>31</v>
       </c>
       <c r="C234">
-        <v>46</v>
-      </c>
-      <c r="D234">
         <v>21</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>44168</v>
       </c>
@@ -4172,13 +3467,10 @@
         <v>32</v>
       </c>
       <c r="C235">
-        <v>51</v>
-      </c>
-      <c r="D235">
         <v>23</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>44169</v>
       </c>
@@ -4186,13 +3478,10 @@
         <v>29</v>
       </c>
       <c r="C236">
-        <v>52</v>
-      </c>
-      <c r="D236">
         <v>19</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>44170</v>
       </c>
@@ -4200,13 +3489,10 @@
         <v>28</v>
       </c>
       <c r="C237">
-        <v>59</v>
-      </c>
-      <c r="D237">
         <v>17</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>44171</v>
       </c>
@@ -4214,13 +3500,10 @@
         <v>28</v>
       </c>
       <c r="C238">
-        <v>70</v>
-      </c>
-      <c r="D238">
         <v>18</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>44172</v>
       </c>
@@ -4228,13 +3511,10 @@
         <v>28</v>
       </c>
       <c r="C239">
-        <v>50</v>
-      </c>
-      <c r="D239">
         <v>18</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>44173</v>
       </c>
@@ -4242,13 +3522,10 @@
         <v>31</v>
       </c>
       <c r="C240">
-        <v>40</v>
-      </c>
-      <c r="D240">
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>44174</v>
       </c>
@@ -4256,13 +3533,10 @@
         <v>37</v>
       </c>
       <c r="C241">
-        <v>36</v>
-      </c>
-      <c r="D241">
         <v>21</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>44175</v>
       </c>
@@ -4270,13 +3544,10 @@
         <v>35</v>
       </c>
       <c r="C242">
-        <v>38</v>
-      </c>
-      <c r="D242">
         <v>18</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>44176</v>
       </c>
@@ -4284,13 +3555,10 @@
         <v>34</v>
       </c>
       <c r="C243">
-        <v>33</v>
-      </c>
-      <c r="D243">
         <v>18</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>44177</v>
       </c>
@@ -4298,13 +3566,10 @@
         <v>31</v>
       </c>
       <c r="C244">
-        <v>49</v>
-      </c>
-      <c r="D244">
         <v>16</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>44178</v>
       </c>
@@ -4312,13 +3577,10 @@
         <v>30</v>
       </c>
       <c r="C245">
-        <v>38</v>
-      </c>
-      <c r="D245">
         <v>16</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>44179</v>
       </c>
@@ -4326,13 +3588,10 @@
         <v>33</v>
       </c>
       <c r="C246">
-        <v>32</v>
-      </c>
-      <c r="D246">
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>44180</v>
       </c>
@@ -4340,13 +3599,10 @@
         <v>31</v>
       </c>
       <c r="C247">
-        <v>38</v>
-      </c>
-      <c r="D247">
         <v>17</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>44181</v>
       </c>
@@ -4354,13 +3610,10 @@
         <v>27</v>
       </c>
       <c r="C248">
-        <v>36</v>
-      </c>
-      <c r="D248">
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>44182</v>
       </c>
@@ -4368,13 +3621,10 @@
         <v>29</v>
       </c>
       <c r="C249">
-        <v>34</v>
-      </c>
-      <c r="D249">
         <v>19</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>44183</v>
       </c>
@@ -4382,13 +3632,10 @@
         <v>31</v>
       </c>
       <c r="C250">
-        <v>29</v>
-      </c>
-      <c r="D250">
         <v>18</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>44184</v>
       </c>
@@ -4396,13 +3643,10 @@
         <v>29</v>
       </c>
       <c r="C251">
-        <v>27</v>
-      </c>
-      <c r="D251">
         <v>18</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>44185</v>
       </c>
@@ -4410,13 +3654,10 @@
         <v>29</v>
       </c>
       <c r="C252">
-        <v>48</v>
-      </c>
-      <c r="D252">
         <v>16</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>44186</v>
       </c>
@@ -4424,13 +3665,10 @@
         <v>30</v>
       </c>
       <c r="C253">
-        <v>43</v>
-      </c>
-      <c r="D253">
         <v>17</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>44187</v>
       </c>
@@ -4438,13 +3676,10 @@
         <v>28</v>
       </c>
       <c r="C254">
-        <v>36</v>
-      </c>
-      <c r="D254">
         <v>16</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>44188</v>
       </c>
@@ -4452,13 +3687,10 @@
         <v>25</v>
       </c>
       <c r="C255">
-        <v>53</v>
-      </c>
-      <c r="D255">
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>44189</v>
       </c>
@@ -4466,13 +3698,10 @@
         <v>22</v>
       </c>
       <c r="C256">
-        <v>72</v>
-      </c>
-      <c r="D256">
         <v>12</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>44190</v>
       </c>
@@ -4480,13 +3709,10 @@
         <v>25</v>
       </c>
       <c r="C257">
-        <v>80</v>
-      </c>
-      <c r="D257">
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>44191</v>
       </c>
@@ -4494,13 +3720,10 @@
         <v>23</v>
       </c>
       <c r="C258">
-        <v>78</v>
-      </c>
-      <c r="D258">
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>44192</v>
       </c>
@@ -4508,13 +3731,10 @@
         <v>27</v>
       </c>
       <c r="C259">
-        <v>77</v>
-      </c>
-      <c r="D259">
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44193</v>
       </c>
@@ -4522,13 +3742,10 @@
         <v>30</v>
       </c>
       <c r="C260">
-        <v>68</v>
-      </c>
-      <c r="D260">
         <v>16</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>44194</v>
       </c>
@@ -4536,13 +3753,10 @@
         <v>34</v>
       </c>
       <c r="C261">
-        <v>46</v>
-      </c>
-      <c r="D261">
         <v>19</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>44195</v>
       </c>
@@ -4550,13 +3764,10 @@
         <v>39</v>
       </c>
       <c r="C262">
-        <v>55</v>
-      </c>
-      <c r="D262">
         <v>20</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>44196</v>
       </c>
@@ -4564,13 +3775,10 @@
         <v>41</v>
       </c>
       <c r="C263">
-        <v>42</v>
-      </c>
-      <c r="D263">
         <v>22</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>44197</v>
       </c>
@@ -4578,13 +3786,10 @@
         <v>50</v>
       </c>
       <c r="C264">
-        <v>57</v>
-      </c>
-      <c r="D264">
         <v>26</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>44198</v>
       </c>
@@ -4592,13 +3797,10 @@
         <v>56</v>
       </c>
       <c r="C265">
-        <v>65</v>
-      </c>
-      <c r="D265">
         <v>30</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>44199</v>
       </c>
@@ -4606,13 +3808,10 @@
         <v>65</v>
       </c>
       <c r="C266">
-        <v>56</v>
-      </c>
-      <c r="D266">
         <v>36</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>44200</v>
       </c>
@@ -4620,13 +3819,10 @@
         <v>72</v>
       </c>
       <c r="C267">
-        <v>52</v>
-      </c>
-      <c r="D267">
         <v>38</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>44201</v>
       </c>
@@ -4634,13 +3830,10 @@
         <v>75</v>
       </c>
       <c r="C268">
-        <v>28</v>
-      </c>
-      <c r="D268">
         <v>42</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>44202</v>
       </c>
@@ -4648,13 +3841,10 @@
         <v>88</v>
       </c>
       <c r="C269">
-        <v>31</v>
-      </c>
-      <c r="D269">
         <v>55</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>44203</v>
       </c>
@@ -4662,13 +3852,10 @@
         <v>101</v>
       </c>
       <c r="C270">
-        <v>30</v>
-      </c>
-      <c r="D270">
         <v>62</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>44204</v>
       </c>
@@ -4676,13 +3863,10 @@
         <v>107</v>
       </c>
       <c r="C271">
-        <v>34</v>
-      </c>
-      <c r="D271">
         <v>62</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>44205</v>
       </c>
@@ -4690,13 +3874,10 @@
         <v>120</v>
       </c>
       <c r="C272">
-        <v>48</v>
-      </c>
-      <c r="D272">
         <v>71</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>44206</v>
       </c>
@@ -4704,13 +3885,10 @@
         <v>127</v>
       </c>
       <c r="C273">
-        <v>49</v>
-      </c>
-      <c r="D273">
         <v>69</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>44207</v>
       </c>
@@ -4718,13 +3896,10 @@
         <v>143</v>
       </c>
       <c r="C274">
-        <v>37</v>
-      </c>
-      <c r="D274">
         <v>74</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>44208</v>
       </c>
@@ -4732,13 +3907,10 @@
         <v>158</v>
       </c>
       <c r="C275">
-        <v>35</v>
-      </c>
-      <c r="D275">
         <v>89</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>44209</v>
       </c>
@@ -4746,13 +3918,10 @@
         <v>174</v>
       </c>
       <c r="C276">
-        <v>38</v>
-      </c>
-      <c r="D276">
         <v>97</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>44210</v>
       </c>
@@ -4760,13 +3929,10 @@
         <v>171</v>
       </c>
       <c r="C277">
-        <v>32</v>
-      </c>
-      <c r="D277">
         <v>101</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>44211</v>
       </c>
@@ -4774,13 +3940,10 @@
         <v>185</v>
       </c>
       <c r="C278">
-        <v>34</v>
-      </c>
-      <c r="D278">
         <v>108</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>44212</v>
       </c>
@@ -4788,13 +3951,10 @@
         <v>186</v>
       </c>
       <c r="C279">
-        <v>38</v>
-      </c>
-      <c r="D279">
         <v>111</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>44213</v>
       </c>
@@ -4802,13 +3962,10 @@
         <v>193</v>
       </c>
       <c r="C280">
-        <v>34</v>
-      </c>
-      <c r="D280">
         <v>108</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>44214</v>
       </c>
@@ -4816,13 +3973,10 @@
         <v>196</v>
       </c>
       <c r="C281">
-        <v>33</v>
-      </c>
-      <c r="D281">
         <v>109</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>44215</v>
       </c>
@@ -4830,13 +3984,10 @@
         <v>206</v>
       </c>
       <c r="C282">
-        <v>35</v>
-      </c>
-      <c r="D282">
         <v>120</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>44216</v>
       </c>
@@ -4844,13 +3995,10 @@
         <v>207</v>
       </c>
       <c r="C283">
-        <v>38</v>
-      </c>
-      <c r="D283">
         <v>126</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>44217</v>
       </c>
@@ -4858,13 +4006,10 @@
         <v>211</v>
       </c>
       <c r="C284">
-        <v>36</v>
-      </c>
-      <c r="D284">
         <v>135</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>44218</v>
       </c>
@@ -4872,13 +4017,10 @@
         <v>215</v>
       </c>
       <c r="C285">
-        <v>33</v>
-      </c>
-      <c r="D285">
         <v>137</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>44219</v>
       </c>
@@ -4886,13 +4028,10 @@
         <v>214</v>
       </c>
       <c r="C286">
-        <v>32</v>
-      </c>
-      <c r="D286">
         <v>131</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>44220</v>
       </c>
@@ -4900,13 +4039,10 @@
         <v>219</v>
       </c>
       <c r="C287">
-        <v>35</v>
-      </c>
-      <c r="D287">
         <v>132</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>44221</v>
       </c>
@@ -4914,13 +4050,10 @@
         <v>217</v>
       </c>
       <c r="C288">
-        <v>37</v>
-      </c>
-      <c r="D288">
         <v>126</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>44222</v>
       </c>
@@ -4928,13 +4061,10 @@
         <v>215</v>
       </c>
       <c r="C289">
-        <v>32</v>
-      </c>
-      <c r="D289">
         <v>135</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>44223</v>
       </c>
@@ -4942,13 +4072,10 @@
         <v>211</v>
       </c>
       <c r="C290">
-        <v>30</v>
-      </c>
-      <c r="D290">
         <v>136</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>44224</v>
       </c>
@@ -4956,13 +4083,10 @@
         <v>213</v>
       </c>
       <c r="C291">
-        <v>30</v>
-      </c>
-      <c r="D291">
         <v>135</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>44225</v>
       </c>
@@ -4970,13 +4094,10 @@
         <v>210</v>
       </c>
       <c r="C292">
-        <v>33</v>
-      </c>
-      <c r="D292">
         <v>130</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>44226</v>
       </c>
@@ -4984,13 +4105,10 @@
         <v>212</v>
       </c>
       <c r="C293">
-        <v>41</v>
-      </c>
-      <c r="D293">
         <v>129</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>44227</v>
       </c>
@@ -4998,13 +4116,10 @@
         <v>209</v>
       </c>
       <c r="C294">
-        <v>34</v>
-      </c>
-      <c r="D294">
         <v>129</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>44228</v>
       </c>
@@ -5012,13 +4127,10 @@
         <v>204</v>
       </c>
       <c r="C295">
-        <v>32</v>
-      </c>
-      <c r="D295">
         <v>131</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>44229</v>
       </c>
@@ -5026,13 +4138,10 @@
         <v>205</v>
       </c>
       <c r="C296">
-        <v>44</v>
-      </c>
-      <c r="D296">
         <v>129</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>44230</v>
       </c>
@@ -5040,13 +4149,10 @@
         <v>198</v>
       </c>
       <c r="C297">
-        <v>37</v>
-      </c>
-      <c r="D297">
         <v>128</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>44231</v>
       </c>
@@ -5054,13 +4160,10 @@
         <v>183</v>
       </c>
       <c r="C298">
-        <v>40</v>
-      </c>
-      <c r="D298">
         <v>127</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>44232</v>
       </c>
@@ -5068,13 +4171,10 @@
         <v>177</v>
       </c>
       <c r="C299">
-        <v>29</v>
-      </c>
-      <c r="D299">
         <v>126</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>44233</v>
       </c>
@@ -5082,13 +4182,10 @@
         <v>178</v>
       </c>
       <c r="C300">
-        <v>43</v>
-      </c>
-      <c r="D300">
         <v>135</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>44234</v>
       </c>
@@ -5096,13 +4193,10 @@
         <v>177</v>
       </c>
       <c r="C301">
-        <v>43</v>
-      </c>
-      <c r="D301">
         <v>132</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>44235</v>
       </c>
@@ -5110,13 +4204,10 @@
         <v>173</v>
       </c>
       <c r="C302">
-        <v>52</v>
-      </c>
-      <c r="D302">
         <v>128</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>44236</v>
       </c>
@@ -5124,13 +4215,10 @@
         <v>175</v>
       </c>
       <c r="C303">
-        <v>44</v>
-      </c>
-      <c r="D303">
         <v>122</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>44237</v>
       </c>
@@ -5138,13 +4226,10 @@
         <v>167</v>
       </c>
       <c r="C304">
-        <v>40</v>
-      </c>
-      <c r="D304">
         <v>123</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>44238</v>
       </c>
@@ -5152,13 +4237,10 @@
         <v>167</v>
       </c>
       <c r="C305">
-        <v>34</v>
-      </c>
-      <c r="D305">
         <v>119</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>44239</v>
       </c>
@@ -5166,13 +4248,10 @@
         <v>169</v>
       </c>
       <c r="C306">
-        <v>33</v>
-      </c>
-      <c r="D306">
         <v>119</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>44240</v>
       </c>
@@ -5180,13 +4259,10 @@
         <v>167</v>
       </c>
       <c r="C307">
-        <v>42</v>
-      </c>
-      <c r="D307">
         <v>119</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>44241</v>
       </c>
@@ -5194,13 +4270,10 @@
         <v>157</v>
       </c>
       <c r="C308">
-        <v>49</v>
-      </c>
-      <c r="D308">
         <v>119</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>44242</v>
       </c>
@@ -5208,13 +4281,10 @@
         <v>155</v>
       </c>
       <c r="C309">
-        <v>42</v>
-      </c>
-      <c r="D309">
         <v>115</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>44243</v>
       </c>
@@ -5222,13 +4292,10 @@
         <v>151</v>
       </c>
       <c r="C310">
-        <v>40</v>
-      </c>
-      <c r="D310">
         <v>109</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>44244</v>
       </c>
@@ -5236,13 +4303,10 @@
         <v>151</v>
       </c>
       <c r="C311">
-        <v>46</v>
-      </c>
-      <c r="D311">
         <v>105</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>44245</v>
       </c>
@@ -5250,13 +4314,10 @@
         <v>148</v>
       </c>
       <c r="C312">
-        <v>36</v>
-      </c>
-      <c r="D312">
         <v>106</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>44246</v>
       </c>
@@ -5264,13 +4325,10 @@
         <v>151</v>
       </c>
       <c r="C313">
-        <v>29</v>
-      </c>
-      <c r="D313">
         <v>106</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>44247</v>
       </c>
@@ -5278,13 +4336,10 @@
         <v>147</v>
       </c>
       <c r="C314">
-        <v>40</v>
-      </c>
-      <c r="D314">
         <v>107</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>44248</v>
       </c>
@@ -5292,13 +4347,10 @@
         <v>149</v>
       </c>
       <c r="C315">
-        <v>45</v>
-      </c>
-      <c r="D315">
         <v>105</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>44249</v>
       </c>
@@ -5306,13 +4358,10 @@
         <v>154</v>
       </c>
       <c r="C316">
-        <v>35</v>
-      </c>
-      <c r="D316">
         <v>105</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>44250</v>
       </c>
@@ -5320,13 +4369,10 @@
         <v>149</v>
       </c>
       <c r="C317">
-        <v>40</v>
-      </c>
-      <c r="D317">
         <v>103</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>44251</v>
       </c>
@@ -5334,13 +4380,10 @@
         <v>135</v>
       </c>
       <c r="C318">
-        <v>41</v>
-      </c>
-      <c r="D318">
         <v>93</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>44252</v>
       </c>
@@ -5348,13 +4391,10 @@
         <v>140</v>
       </c>
       <c r="C319">
-        <v>39</v>
-      </c>
-      <c r="D319">
         <v>97</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>44253</v>
       </c>
@@ -5362,13 +4402,10 @@
         <v>135</v>
       </c>
       <c r="C320">
-        <v>41</v>
-      </c>
-      <c r="D320">
         <v>92</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>44254</v>
       </c>
@@ -5376,13 +4413,10 @@
         <v>132</v>
       </c>
       <c r="C321">
-        <v>42</v>
-      </c>
-      <c r="D321">
         <v>91</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>44255</v>
       </c>
@@ -5390,13 +4424,10 @@
         <v>132</v>
       </c>
       <c r="C322">
-        <v>46</v>
-      </c>
-      <c r="D322">
         <v>94</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>44256</v>
       </c>
@@ -5404,13 +4435,10 @@
         <v>115</v>
       </c>
       <c r="C323">
-        <v>37</v>
-      </c>
-      <c r="D323">
         <v>82</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>44257</v>
       </c>
@@ -5418,13 +4446,10 @@
         <v>112</v>
       </c>
       <c r="C324">
-        <v>33</v>
-      </c>
-      <c r="D324">
         <v>85</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>44258</v>
       </c>
@@ -5432,13 +4457,10 @@
         <v>108</v>
       </c>
       <c r="C325">
-        <v>30</v>
-      </c>
-      <c r="D325">
         <v>84</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>44259</v>
       </c>
@@ -5446,13 +4468,10 @@
         <v>103</v>
       </c>
       <c r="C326">
-        <v>42</v>
-      </c>
-      <c r="D326">
         <v>78</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>44260</v>
       </c>
@@ -5460,13 +4479,10 @@
         <v>99</v>
       </c>
       <c r="C327">
-        <v>51</v>
-      </c>
-      <c r="D327">
         <v>66</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>44261</v>
       </c>
@@ -5474,13 +4490,10 @@
         <v>102</v>
       </c>
       <c r="C328">
-        <v>52</v>
-      </c>
-      <c r="D328">
         <v>60</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>44262</v>
       </c>
@@ -5488,13 +4501,10 @@
         <v>103</v>
       </c>
       <c r="C329">
-        <v>49</v>
-      </c>
-      <c r="D329">
         <v>64</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>44263</v>
       </c>
@@ -5502,13 +4512,10 @@
         <v>101</v>
       </c>
       <c r="C330">
-        <v>42</v>
-      </c>
-      <c r="D330">
         <v>66</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>44264</v>
       </c>
@@ -5516,13 +4523,10 @@
         <v>93</v>
       </c>
       <c r="C331">
-        <v>50</v>
-      </c>
-      <c r="D331">
         <v>67</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>44265</v>
       </c>
@@ -5530,13 +4534,10 @@
         <v>92</v>
       </c>
       <c r="C332">
-        <v>36</v>
-      </c>
-      <c r="D332">
         <v>62</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>44266</v>
       </c>
@@ -5544,13 +4545,10 @@
         <v>87</v>
       </c>
       <c r="C333">
-        <v>40</v>
-      </c>
-      <c r="D333">
         <v>57</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>44267</v>
       </c>
@@ -5558,13 +4556,10 @@
         <v>86</v>
       </c>
       <c r="C334">
-        <v>43</v>
-      </c>
-      <c r="D334">
         <v>57</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>44268</v>
       </c>
@@ -5572,13 +4567,10 @@
         <v>85</v>
       </c>
       <c r="C335">
-        <v>41</v>
-      </c>
-      <c r="D335">
         <v>56</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>44269</v>
       </c>
@@ -5586,13 +4578,10 @@
         <v>86</v>
       </c>
       <c r="C336">
-        <v>51</v>
-      </c>
-      <c r="D336">
         <v>57</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>44270</v>
       </c>
@@ -5600,13 +4589,10 @@
         <v>85</v>
       </c>
       <c r="C337">
-        <v>36</v>
-      </c>
-      <c r="D337">
         <v>59</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>44271</v>
       </c>
@@ -5614,13 +4600,10 @@
         <v>85</v>
       </c>
       <c r="C338">
-        <v>47</v>
-      </c>
-      <c r="D338">
         <v>57</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>44272</v>
       </c>
@@ -5628,13 +4611,10 @@
         <v>82</v>
       </c>
       <c r="C339">
-        <v>47</v>
-      </c>
-      <c r="D339">
         <v>56</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>44273</v>
       </c>
@@ -5642,13 +4622,10 @@
         <v>83</v>
       </c>
       <c r="C340">
-        <v>25</v>
-      </c>
-      <c r="D340">
         <v>55</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>44274</v>
       </c>
@@ -5656,13 +4633,10 @@
         <v>87</v>
       </c>
       <c r="C341">
-        <v>31</v>
-      </c>
-      <c r="D341">
         <v>51</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>44275</v>
       </c>
@@ -5670,13 +4644,10 @@
         <v>83</v>
       </c>
       <c r="C342">
-        <v>42</v>
-      </c>
-      <c r="D342">
         <v>50</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>44276</v>
       </c>
@@ -5684,13 +4655,10 @@
         <v>80</v>
       </c>
       <c r="C343">
-        <v>51</v>
-      </c>
-      <c r="D343">
         <v>47</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>44277</v>
       </c>
@@ -5698,13 +4666,10 @@
         <v>80</v>
       </c>
       <c r="C344">
-        <v>34</v>
-      </c>
-      <c r="D344">
         <v>50</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>44278</v>
       </c>
@@ -5712,13 +4677,10 @@
         <v>76</v>
       </c>
       <c r="C345">
-        <v>37</v>
-      </c>
-      <c r="D345">
         <v>52</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>44279</v>
       </c>
@@ -5726,13 +4688,10 @@
         <v>75</v>
       </c>
       <c r="C346">
-        <v>35</v>
-      </c>
-      <c r="D346">
         <v>53</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>44280</v>
       </c>
@@ -5740,13 +4699,10 @@
         <v>75</v>
       </c>
       <c r="C347">
-        <v>34</v>
-      </c>
-      <c r="D347">
         <v>53</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>44281</v>
       </c>
@@ -5754,13 +4710,10 @@
         <v>66</v>
       </c>
       <c r="C348">
-        <v>42</v>
-      </c>
-      <c r="D348">
         <v>50</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>44282</v>
       </c>
@@ -5768,13 +4721,10 @@
         <v>65</v>
       </c>
       <c r="C349">
-        <v>37</v>
-      </c>
-      <c r="D349">
         <v>46</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>44283</v>
       </c>
@@ -5782,13 +4732,10 @@
         <v>68</v>
       </c>
       <c r="C350">
-        <v>45</v>
-      </c>
-      <c r="D350">
         <v>43</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>44284</v>
       </c>
@@ -5796,13 +4743,10 @@
         <v>70</v>
       </c>
       <c r="C351">
-        <v>37</v>
-      </c>
-      <c r="D351">
         <v>45</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>44285</v>
       </c>
@@ -5810,13 +4754,10 @@
         <v>65</v>
       </c>
       <c r="C352">
-        <v>31</v>
-      </c>
-      <c r="D352">
         <v>41</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>44286</v>
       </c>
@@ -5824,13 +4765,10 @@
         <v>64</v>
       </c>
       <c r="C353">
-        <v>42</v>
-      </c>
-      <c r="D353">
         <v>41</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>44287</v>
       </c>
@@ -5838,13 +4776,10 @@
         <v>61</v>
       </c>
       <c r="C354">
-        <v>37</v>
-      </c>
-      <c r="D354">
         <v>42</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>44288</v>
       </c>
@@ -5852,13 +4787,10 @@
         <v>60</v>
       </c>
       <c r="C355">
-        <v>43</v>
-      </c>
-      <c r="D355">
         <v>38</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>44289</v>
       </c>
@@ -5866,13 +4798,10 @@
         <v>61</v>
       </c>
       <c r="C356">
-        <v>50</v>
-      </c>
-      <c r="D356">
         <v>38</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>44290</v>
       </c>
@@ -5880,13 +4809,10 @@
         <v>56</v>
       </c>
       <c r="C357">
-        <v>52</v>
-      </c>
-      <c r="D357">
         <v>37</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>44291</v>
       </c>
@@ -5894,13 +4820,10 @@
         <v>55</v>
       </c>
       <c r="C358">
-        <v>55</v>
-      </c>
-      <c r="D358">
         <v>36</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>44292</v>
       </c>
@@ -5910,8 +4833,313 @@
       <c r="C359">
         <v>37</v>
       </c>
-      <c r="D359">
-        <v>37</v>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <v>44293</v>
+      </c>
+      <c r="B360">
+        <v>54</v>
+      </c>
+      <c r="C360">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
+        <v>44294</v>
+      </c>
+      <c r="B361">
+        <v>53</v>
+      </c>
+      <c r="C361">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <v>44295</v>
+      </c>
+      <c r="B362">
+        <v>51</v>
+      </c>
+      <c r="C362">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <v>44296</v>
+      </c>
+      <c r="B363">
+        <v>48</v>
+      </c>
+      <c r="C363">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
+        <v>44297</v>
+      </c>
+      <c r="B364">
+        <v>50</v>
+      </c>
+      <c r="C364">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <v>44298</v>
+      </c>
+      <c r="B365">
+        <v>46</v>
+      </c>
+      <c r="C365">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
+        <v>44299</v>
+      </c>
+      <c r="B366">
+        <v>47</v>
+      </c>
+      <c r="C366">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <v>44300</v>
+      </c>
+      <c r="B367">
+        <v>48</v>
+      </c>
+      <c r="C367">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
+        <v>44301</v>
+      </c>
+      <c r="B368">
+        <v>50</v>
+      </c>
+      <c r="C368">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" s="1">
+        <v>44302</v>
+      </c>
+      <c r="B369">
+        <v>51</v>
+      </c>
+      <c r="C369">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" s="1">
+        <v>44303</v>
+      </c>
+      <c r="B370">
+        <v>49</v>
+      </c>
+      <c r="C370">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" s="1">
+        <v>44304</v>
+      </c>
+      <c r="B371">
+        <v>46</v>
+      </c>
+      <c r="C371">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" s="1">
+        <v>44305</v>
+      </c>
+      <c r="B372">
+        <v>48</v>
+      </c>
+      <c r="C372">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" s="1">
+        <v>44306</v>
+      </c>
+      <c r="B373">
+        <v>47</v>
+      </c>
+      <c r="C373">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" s="1">
+        <v>44307</v>
+      </c>
+      <c r="B374">
+        <v>47</v>
+      </c>
+      <c r="C374">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" s="1">
+        <v>44308</v>
+      </c>
+      <c r="B375">
+        <v>48</v>
+      </c>
+      <c r="C375">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" s="1">
+        <v>44309</v>
+      </c>
+      <c r="B376">
+        <v>48</v>
+      </c>
+      <c r="C376">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" s="1">
+        <v>44310</v>
+      </c>
+      <c r="B377">
+        <v>46</v>
+      </c>
+      <c r="C377">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" s="1">
+        <v>44311</v>
+      </c>
+      <c r="B378">
+        <v>46</v>
+      </c>
+      <c r="C378">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" s="1">
+        <v>44312</v>
+      </c>
+      <c r="B379">
+        <v>45</v>
+      </c>
+      <c r="C379">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" s="1">
+        <v>44313</v>
+      </c>
+      <c r="B380">
+        <v>47</v>
+      </c>
+      <c r="C380">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" s="1">
+        <v>44314</v>
+      </c>
+      <c r="B381">
+        <v>43</v>
+      </c>
+      <c r="C381">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" s="1">
+        <v>44315</v>
+      </c>
+      <c r="B382">
+        <v>44</v>
+      </c>
+      <c r="C382">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" s="1">
+        <v>44316</v>
+      </c>
+      <c r="B383">
+        <v>44</v>
+      </c>
+      <c r="C383">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B384">
+        <v>41</v>
+      </c>
+      <c r="C384">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385" s="1">
+        <v>44318</v>
+      </c>
+      <c r="B385">
+        <v>41</v>
+      </c>
+      <c r="C385">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386" s="1">
+        <v>44319</v>
+      </c>
+      <c r="B386">
+        <v>40</v>
+      </c>
+      <c r="C386">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387" s="1">
+        <v>44320</v>
+      </c>
+      <c r="B387">
+        <v>39</v>
+      </c>
+      <c r="C387">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5921,18 +5149,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6159,14 +5387,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BE587D-E57A-4527-8E83-4C5AE2686BCA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -6179,6 +5399,14 @@
     <ds:schemaRef ds:uri="514868b4-9db6-4edd-a163-6c6915c701a5"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBCD0DD-E5BF-4854-A2AA-8E63557D0656}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
